--- a/AGEC 609 PSET 3.xlsx
+++ b/AGEC 609 PSET 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donnel26\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124611C-B283-4D2C-BD11-7D621A1E6BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB5D85-C8CE-4D96-977F-6ED668B630B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{3D9CDADF-415B-42B7-BF7A-9C8D4EBFAFAF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{3D9CDADF-415B-42B7-BF7A-9C8D4EBFAFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Book Example" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="320">
   <si>
     <t>Parameter</t>
   </si>
@@ -965,6 +965,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Nominal</t>
@@ -986,6 +987,7 @@
         <sz val="11"/>
         <color rgb="FF9933FF"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Real</t>
@@ -1007,6 +1009,7 @@
         <sz val="11"/>
         <color rgb="FF9933FF"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Real</t>
@@ -1028,6 +1031,7 @@
         <sz val="11"/>
         <color rgb="FF9933FF"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Real</t>
@@ -1049,6 +1053,7 @@
         <sz val="11"/>
         <color rgb="FF9933FF"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Real</t>
@@ -1070,6 +1075,7 @@
         <sz val="11"/>
         <color rgb="FF9933FF"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Real</t>
@@ -1127,10 +1133,14 @@
         <sz val="11"/>
         <color rgb="FF9933FF"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Real</t>
     </r>
+  </si>
+  <si>
+    <t>adjust shadow</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1153,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1291,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1292,14 +1303,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9933FF"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1307,6 +1313,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1314,11 +1321,20 @@
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
@@ -1682,7 +1698,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2055,9 +2071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2068,9 +2081,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2091,40 +2101,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2136,35 +2128,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2173,25 +2157,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2541,18 +2523,18 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="8" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" customWidth="1"/>
+    <col min="8" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -2576,7 +2558,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="22"/>
     </row>
-    <row r="2" spans="1:22" ht="15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -2603,7 +2585,7 @@
       </c>
       <c r="V2" s="22"/>
     </row>
-    <row r="3" spans="1:22" ht="15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -2652,7 +2634,7 @@
       </c>
       <c r="V3" s="24"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2700,7 +2682,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2761,7 +2743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2822,7 +2804,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2882,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2925,7 +2907,7 @@
       </c>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2960,7 +2942,7 @@
       </c>
       <c r="S9" s="24"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3011,7 +2993,7 @@
       </c>
       <c r="S10" s="24"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3061,7 +3043,7 @@
       </c>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3105,7 +3087,7 @@
       </c>
       <c r="S12" s="24"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3152,7 +3134,7 @@
       </c>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:22" ht="15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3192,7 +3174,7 @@
       </c>
       <c r="S14" s="24"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3235,7 +3217,7 @@
       </c>
       <c r="S15" s="24"/>
     </row>
-    <row r="16" spans="1:22" ht="15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F16" s="26"/>
       <c r="H16" s="24"/>
       <c r="I16" s="1" t="s">
@@ -3254,7 +3236,7 @@
       </c>
       <c r="S16" s="24"/>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -3272,7 +3254,7 @@
       <c r="N17" s="26"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:22" ht="15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -3305,7 +3287,7 @@
       </c>
       <c r="S18" s="24"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -3332,7 +3314,7 @@
       <c r="N19" s="26"/>
       <c r="S19" s="24"/>
     </row>
-    <row r="20" spans="1:22" ht="15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -3362,7 +3344,7 @@
       </c>
       <c r="S20" s="24"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1">
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -3396,7 +3378,7 @@
       </c>
       <c r="S21" s="24"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -3427,7 +3409,7 @@
       </c>
       <c r="S22" s="24"/>
     </row>
-    <row r="23" spans="1:22" ht="15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -3448,7 +3430,7 @@
       <c r="N23" s="26"/>
       <c r="S23" s="24"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -3481,7 +3463,7 @@
       <c r="P24" s="6"/>
       <c r="S24" s="24"/>
     </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1">
+    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -3510,13 +3492,13 @@
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:22" ht="15">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>89</v>
       </c>
@@ -3540,7 +3522,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2015</v>
       </c>
@@ -3605,7 +3587,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -3673,12 +3655,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -3691,7 +3673,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -3704,7 +3686,7 @@
         <v>86.35</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -3793,7 +3775,7 @@
         <v>160.35</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -3878,7 +3860,7 @@
         <v>-201.21350000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -3963,7 +3945,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
@@ -4052,12 +4034,12 @@
         <v>284.13649999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="8">
         <v>0.05</v>
@@ -4069,7 +4051,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>98</v>
       </c>
@@ -4086,7 +4068,7 @@
         <v>-178.3472147201453</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>99</v>
       </c>
@@ -4109,10 +4091,10 @@
         <v>24500.000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:22" ht="15">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>102</v>
       </c>
@@ -4140,7 +4122,7 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>2015</v>
       </c>
@@ -4205,7 +4187,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -4273,17 +4255,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -4341,7 +4323,7 @@
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -4354,12 +4336,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -4404,7 +4386,7 @@
         <v>2.8462932490348658</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -4425,7 +4407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -4474,7 +4456,7 @@
         <v>84.168957507173914</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -4563,12 +4545,12 @@
         <v>284.13649999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -4653,7 +4635,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4738,7 +4720,7 @@
         <v>-201.21350000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4823,7 +4805,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -4908,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -4993,7 +4975,7 @@
         <v>111.28649999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -5078,12 +5060,12 @@
         <v>27.821624999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="15">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>112</v>
       </c>
@@ -5172,7 +5154,7 @@
         <v>256.31487499999997</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="8">
         <v>0.05</v>
@@ -5184,7 +5166,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>98</v>
       </c>
@@ -5201,7 +5183,7 @@
         <v>60.357831214737487</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>99</v>
       </c>
@@ -5212,7 +5194,7 @@
       <c r="C72" s="12"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="74" spans="1:22" ht="15">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>134</v>
       </c>
@@ -5240,7 +5222,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>2015</v>
       </c>
@@ -5305,7 +5287,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>90</v>
       </c>
@@ -5373,12 +5355,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5391,7 +5373,7 @@
         <v>68.86363636363636</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -5404,7 +5386,7 @@
         <v>104.19658</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="15">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -5493,7 +5475,7 @@
         <v>173.06021636363636</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
@@ -5578,7 +5560,7 @@
         <v>-228.49871150912855</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>68</v>
       </c>
@@ -5663,7 +5645,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>129</v>
       </c>
@@ -5747,7 +5729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -5836,7 +5818,7 @@
         <v>259.5615048545078</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="8">
         <v>0.05</v>
@@ -5848,7 +5830,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>98</v>
       </c>
@@ -5882,7 +5864,7 @@
       <c r="U90" s="16"/>
       <c r="V90" s="16"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>99</v>
       </c>
@@ -5893,10 +5875,10 @@
       <c r="C91" s="12"/>
       <c r="D91" s="14"/>
     </row>
-    <row r="97" spans="1:1" ht="15">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" ht="15">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
     </row>
   </sheetData>
@@ -5913,20 +5895,20 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -5952,7 +5934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -5965,7 +5947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="113" t="s">
         <v>204</v>
       </c>
@@ -5988,7 +5970,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="113" t="s">
         <v>205</v>
       </c>
@@ -6038,7 +6020,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="113"/>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
@@ -6076,7 +6058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
         <v>206</v>
       </c>
@@ -6117,7 +6099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
         <v>209</v>
       </c>
@@ -6131,7 +6113,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>207</v>
       </c>
@@ -6148,7 +6130,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="111" t="s">
         <v>208</v>
       </c>
@@ -6163,8 +6145,8 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1"/>
-    <row r="12" spans="1:18" ht="15">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
         <v>100</v>
       </c>
@@ -6174,7 +6156,7 @@
       </c>
       <c r="D12" s="57"/>
     </row>
-    <row r="13" spans="1:18" ht="15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="61" t="s">
         <v>160</v>
       </c>
@@ -6186,7 +6168,7 @@
       </c>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:18" ht="15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="61" t="s">
         <v>232</v>
       </c>
@@ -6200,7 +6182,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="63" t="s">
         <v>233</v>
       </c>
@@ -6214,11 +6196,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="F16" s="51"/>
       <c r="G16" s="90"/>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>114</v>
       </c>
@@ -6227,7 +6209,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="90"/>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1">
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>203</v>
       </c>
@@ -6235,7 +6217,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -6281,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="78" t="s">
         <v>183</v>
       </c>
@@ -6326,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
         <v>180</v>
       </c>
@@ -6338,7 +6320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="83" t="s">
         <v>191</v>
       </c>
@@ -6350,76 +6332,76 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="83" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
         <v>193</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="53"/>
     </row>
-    <row r="25" spans="1:22" ht="15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="80" t="s">
         <v>184</v>
       </c>
       <c r="U25" s="52"/>
       <c r="V25" s="53"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="80" t="s">
         <v>185</v>
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="53"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="80" t="s">
         <v>186</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="53"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="80" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="79" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="81" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="53"/>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="84" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="92" t="s">
         <v>198</v>
       </c>
@@ -6441,27 +6423,27 @@
       <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="53" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="53" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="53" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="53" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="53" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="53" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.875" style="53" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="53"/>
+    <col min="1" max="1" width="26.36328125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="53" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" style="53" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" style="53" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" style="53" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -6476,7 +6458,7 @@
       </c>
       <c r="M1" s="60"/>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -6510,7 +6492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -6538,7 +6520,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -6576,7 +6558,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -6613,7 +6595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -6646,7 +6628,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -6666,7 +6648,7 @@
       </c>
       <c r="I7" s="54"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -6689,7 +6671,7 @@
       </c>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
@@ -6708,7 +6690,7 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -6731,7 +6713,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -6754,7 +6736,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -6771,7 +6753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -6809,7 +6791,7 @@
       </c>
       <c r="M13" s="54"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G14" s="53" t="s">
         <v>153</v>
       </c>
@@ -6832,24 +6814,24 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H15" s="54"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="21.95" customHeight="1">
+    <row r="16" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="53" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:14" ht="15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -6871,7 +6853,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="1" t="s">
         <v>176</v>
@@ -6908,7 +6890,7 @@
         <v>47907.561513717577</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -6949,7 +6931,7 @@
         <v>-1.6162230312956241</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -6994,7 +6976,7 @@
         <v>0.3278984969733878</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>180</v>
       </c>
@@ -7010,7 +6992,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -7092,7 +7074,7 @@
         <v>-6582.5698679716879</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -7137,7 +7119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>179</v>
       </c>
@@ -7183,7 +7165,7 @@
         <v>-6562.5698679716879</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -7197,7 +7179,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -7242,7 +7224,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -7256,7 +7238,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:14" ht="15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -7302,7 +7284,7 @@
         <v>17437.430132028312</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -7319,7 +7301,7 @@
       <c r="L31"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="68" t="s">
         <v>157</v>
       </c>
@@ -7341,7 +7323,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33" s="1" t="s">
         <v>176</v>
@@ -7378,7 +7360,7 @@
         <v>41677.996023177642</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" t="s">
@@ -7416,7 +7398,7 @@
       </c>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>90</v>
       </c>
@@ -7461,7 +7443,7 @@
         <v>0.78602099321495267</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
@@ -7477,7 +7459,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:14" ht="15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -7493,7 +7475,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -7539,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -7555,7 +7537,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:14" ht="15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -7571,7 +7553,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -7616,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -7634,7 +7616,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:14" ht="15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -7680,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -7694,7 +7676,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:14" ht="15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -7740,7 +7722,7 @@
         <v>17437.430132028312</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -7754,7 +7736,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:14" ht="15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
@@ -7799,7 +7781,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7813,7 +7795,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:18" ht="15">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
@@ -7829,7 +7811,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:18" ht="15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -7875,7 +7857,7 @@
         <v>15837.430132028312</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -7889,7 +7871,7 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -7899,7 +7881,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -7911,7 +7893,7 @@
       <c r="I53"/>
       <c r="M53"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -7922,14 +7904,14 @@
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O64"/>
       <c r="P64"/>
     </row>
@@ -7946,12 +7928,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7962,7 +7944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7973,7 +7955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7984,7 +7966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7995,7 +7977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8006,7 +7988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8017,7 +7999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8028,7 +8010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -8039,7 +8021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -8050,7 +8032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8061,7 +8043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8072,7 +8054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -8083,7 +8065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -8094,7 +8076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -8105,7 +8087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8116,7 +8098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -8127,7 +8109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -8138,7 +8120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8149,7 +8131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8160,7 +8142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -8171,7 +8153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -8182,7 +8164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -8193,7 +8175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -8204,7 +8186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -8215,7 +8197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -8235,33 +8217,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCE835-A550-442C-AE85-1BD2BBFE091E}">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="53" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="53" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="53" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="53" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="53" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="53" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="53" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" style="53" customWidth="1"/>
     <col min="13" max="13" width="22" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.375" style="53" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="53"/>
-    <col min="17" max="17" width="13.25" style="53" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="53"/>
+    <col min="14" max="14" width="10.90625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.36328125" style="53" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="53"/>
+    <col min="17" max="17" width="13.26953125" style="53" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -8279,7 +8261,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -8317,7 +8299,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -8345,7 +8327,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -8387,7 +8369,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -8428,7 +8410,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -8461,7 +8443,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -8484,7 +8466,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -8507,7 +8489,7 @@
       </c>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
@@ -8526,7 +8508,7 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -8549,7 +8531,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -8572,7 +8554,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -8589,7 +8571,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1">
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -8636,7 +8618,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G14" s="53" t="s">
         <v>153</v>
       </c>
@@ -8670,7 +8652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D15" s="51" t="s">
         <v>196</v>
       </c>
@@ -8681,7 +8663,7 @@
       </c>
       <c r="Q15" s="56"/>
     </row>
-    <row r="16" spans="1:17" ht="21.95" customHeight="1">
+    <row r="16" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="88">
         <f>(1+D13)/(1+M3)-1</f>
         <v>5.8823529411764719E-2</v>
@@ -8703,7 +8685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -8716,7 +8698,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -8746,7 +8728,7 @@
       </c>
       <c r="Q18" s="56"/>
     </row>
-    <row r="19" spans="1:24" ht="15">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" t="s">
         <v>164</v>
@@ -8791,7 +8773,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>154</v>
@@ -8842,7 +8824,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -8895,7 +8877,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="78" t="s">
         <v>183</v>
       </c>
@@ -8949,48 +8931,48 @@
       </c>
       <c r="Q22" s="56"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="78" t="s">
         <v>180</v>
       </c>
       <c r="B23">
-        <f>B24+B30+B31</f>
+        <f t="shared" ref="B23:K23" si="2">B24+B30+B31</f>
         <v>10200</v>
       </c>
       <c r="C23" s="2">
-        <f>C24+C30+C31</f>
+        <f t="shared" si="2"/>
         <v>17148.867758143602</v>
       </c>
       <c r="D23">
-        <f>D24+D30+D31</f>
+        <f t="shared" si="2"/>
         <v>17315.331758143599</v>
       </c>
       <c r="E23">
-        <f>E24+E30+E31</f>
+        <f t="shared" si="2"/>
         <v>17485.125038143604</v>
       </c>
       <c r="F23">
-        <f>F24+F30+F31</f>
+        <f t="shared" si="2"/>
         <v>17658.314183743601</v>
       </c>
       <c r="G23">
-        <f>G24+G30+G31</f>
+        <f t="shared" si="2"/>
         <v>17834.967112255603</v>
       </c>
       <c r="H23">
-        <f>H24+H30+H31</f>
+        <f t="shared" si="2"/>
         <v>18015.15309933784</v>
       </c>
       <c r="I23">
-        <f>I24+I30+I31</f>
+        <f t="shared" si="2"/>
         <v>9373.2750480181239</v>
       </c>
       <c r="J23">
-        <f>J24+J30+J31</f>
+        <f t="shared" si="2"/>
         <v>9560.7405489784869</v>
       </c>
       <c r="K23">
-        <f>K24+K30+K31</f>
+        <f t="shared" si="2"/>
         <v>9751.9553599580577</v>
       </c>
       <c r="L23" s="1"/>
@@ -9004,7 +8986,7 @@
       </c>
       <c r="Q23" s="67"/>
     </row>
-    <row r="24" spans="1:24" ht="15">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
         <v>191</v>
       </c>
@@ -9012,45 +8994,45 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:K24" si="2">($H$10*$H$14)*(1+$M$3)^C21</f>
+        <f t="shared" ref="C24:K24" si="3">($H$10*$H$14)*(1+$M$3)^C21</f>
         <v>8323.2000000000007</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8489.6639999999989</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8659.4572800000005</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8832.6464255999999</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9009.2993541120013</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9189.4853411942386</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9373.2750480181239</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9560.7405489784869</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9751.9553599580577</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:24" ht="15">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="83" t="s">
         <v>193</v>
       </c>
@@ -9067,7 +9049,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:24" ht="15">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="80" t="s">
         <v>184</v>
       </c>
@@ -9087,7 +9069,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:24" ht="15">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="80" t="s">
         <v>185</v>
       </c>
@@ -9107,7 +9089,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:24" ht="15">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="80" t="s">
         <v>186</v>
       </c>
@@ -9115,27 +9097,27 @@
         <v>0</v>
       </c>
       <c r="C28" s="82">
-        <f>PPMT($D$13, B21, $E$13,-$B$27)</f>
+        <f t="shared" ref="C28:H28" si="4">PPMT($D$13, B21, $E$13,-$B$27)</f>
         <v>5561.6677581436015</v>
       </c>
       <c r="D28" s="82">
-        <f>PPMT($D$13, C21, $E$13,-$B$27)</f>
+        <f t="shared" si="4"/>
         <v>6006.6011787950893</v>
       </c>
       <c r="E28" s="82">
-        <f>PPMT($D$13, D21, $E$13,-$B$27)</f>
+        <f t="shared" si="4"/>
         <v>6487.1292730986961</v>
       </c>
       <c r="F28" s="82">
-        <f>PPMT($D$13, E21, $E$13,-$B$27)</f>
+        <f t="shared" si="4"/>
         <v>7006.0996149465918</v>
       </c>
       <c r="G28" s="82">
-        <f>PPMT($D$13, F21, $E$13,-$B$27)</f>
+        <f t="shared" si="4"/>
         <v>7566.5875841423194</v>
       </c>
       <c r="H28" s="82">
-        <f>PPMT($D$13, G21, $E$13,-$B$27)</f>
+        <f t="shared" si="4"/>
         <v>8171.9145908737055</v>
       </c>
       <c r="I28">
@@ -9150,7 +9132,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:24" ht="15">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="80" t="s">
         <v>187</v>
       </c>
@@ -9158,27 +9140,27 @@
         <v>0</v>
       </c>
       <c r="C29" s="16">
-        <f>IPMT($D$13,B21,$E$13,-$B$27)</f>
+        <f t="shared" ref="C29:H29" si="5">IPMT($D$13,B21,$E$13,-$B$27)</f>
         <v>3264</v>
       </c>
       <c r="D29" s="16">
-        <f>IPMT($D$13,C21,$E$13,-$B$27)</f>
+        <f t="shared" si="5"/>
         <v>2819.0665793485127</v>
       </c>
       <c r="E29" s="16">
-        <f>IPMT($D$13,D21,$E$13,-$B$27)</f>
+        <f t="shared" si="5"/>
         <v>2338.538485044905</v>
       </c>
       <c r="F29" s="16">
-        <f>IPMT($D$13,E21,$E$13,-$B$27)</f>
+        <f t="shared" si="5"/>
         <v>1819.5681431970095</v>
       </c>
       <c r="G29" s="16">
-        <f>IPMT($D$13,F21,$E$13,-$B$27)</f>
+        <f t="shared" si="5"/>
         <v>1259.0801740012819</v>
       </c>
       <c r="H29" s="16">
-        <f>IPMT($D$13,G21,$E$13,-$B$27)</f>
+        <f t="shared" si="5"/>
         <v>653.75316726989638</v>
       </c>
       <c r="I29">
@@ -9193,7 +9175,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:24" ht="15">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="79" t="s">
         <v>188</v>
       </c>
@@ -9206,41 +9188,41 @@
         <v>8825.6677581436015</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:K30" si="3">SUM(D28:D29)</f>
+        <f t="shared" ref="D30:K30" si="6">SUM(D28:D29)</f>
         <v>8825.6677581436015</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8825.6677581436015</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8825.6677581436015</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8825.6677581436015</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8825.6677581436015</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:24" ht="15">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="79" t="s">
         <v>189</v>
       </c>
@@ -9289,53 +9271,53 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="15">
-      <c r="A32" s="81" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="43">
+        <v>0</v>
+      </c>
+      <c r="C32" s="43">
         <f>($H$14*$I$6)*(1+$M$3)^C21</f>
         <v>1664.6399999999999</v>
       </c>
-      <c r="D32">
-        <f>($H$14*$I$6)*(1+$M$3)^D21</f>
+      <c r="D32" s="43">
+        <f t="shared" ref="C32:K32" si="7">($H$14*$I$6)*(1+$M$3)^D21</f>
         <v>1697.9327999999998</v>
       </c>
-      <c r="E32">
-        <f>($H$14*$I$6)*(1+$M$3)^E21</f>
+      <c r="E32" s="43">
+        <f t="shared" si="7"/>
         <v>1731.8914560000001</v>
       </c>
-      <c r="F32">
-        <f>($H$14*$I$6)*(1+$M$3)^F21</f>
+      <c r="F32" s="43">
+        <f t="shared" si="7"/>
         <v>1766.5292851199999</v>
       </c>
-      <c r="G32">
-        <f>($H$14*$I$6)*(1+$M$3)^G21</f>
+      <c r="G32" s="43">
+        <f t="shared" si="7"/>
         <v>1801.8598708224001</v>
       </c>
-      <c r="H32">
-        <f>($H$14*$I$6)*(1+$M$3)^H21</f>
+      <c r="H32" s="43">
+        <f t="shared" si="7"/>
         <v>1837.8970682388476</v>
       </c>
-      <c r="I32">
-        <f>($H$14*$I$6)*(1+$M$3)^I21</f>
+      <c r="I32" s="43">
+        <f t="shared" si="7"/>
         <v>1874.6550096036249</v>
       </c>
-      <c r="J32">
-        <f>($H$14*$I$6)*(1+$M$3)^J21</f>
+      <c r="J32" s="43">
+        <f t="shared" si="7"/>
         <v>1912.1481097956973</v>
       </c>
-      <c r="K32">
-        <f>($H$14*$I$6)*(1+$M$3)^K21</f>
+      <c r="K32" s="43">
+        <f t="shared" si="7"/>
         <v>1950.3910719916114</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="L32" s="211"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" ht="15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33"/>
@@ -9350,105 +9332,105 @@
       <c r="L33" s="1"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" ht="15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B34">
-        <f>B22-B23</f>
+        <f t="shared" ref="B34:K34" si="8">B22-B23</f>
         <v>-10200</v>
       </c>
       <c r="C34">
-        <f>C22-C23</f>
+        <f t="shared" si="8"/>
         <v>2202.5722418563964</v>
       </c>
       <c r="D34">
-        <f>D22-D23</f>
+        <f t="shared" si="8"/>
         <v>2423.1370418564002</v>
       </c>
       <c r="E34">
-        <f>E22-E23</f>
+        <f t="shared" si="8"/>
         <v>2648.113137856395</v>
       </c>
       <c r="F34">
-        <f>F22-F23</f>
+        <f t="shared" si="8"/>
         <v>2877.5887557763999</v>
       </c>
       <c r="G34">
-        <f>G22-G23</f>
+        <f t="shared" si="8"/>
         <v>3111.6538860547989</v>
       </c>
       <c r="H34">
-        <f>H22-H23</f>
+        <f t="shared" si="8"/>
         <v>3350.4003189387658</v>
       </c>
       <c r="I34">
-        <f>I22-I23</f>
+        <f t="shared" si="8"/>
         <v>12419.589438624014</v>
       </c>
       <c r="J34">
-        <f>J22-J23</f>
+        <f t="shared" si="8"/>
         <v>12667.981227396496</v>
       </c>
       <c r="K34">
-        <f>K22-K23</f>
+        <f t="shared" si="8"/>
         <v>12921.340851944424</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1">
+    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L35" s="1"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="84" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="85">
-        <f t="shared" ref="B36:K36" si="4">B34-B32</f>
+        <f t="shared" ref="B36:K36" si="9">B34-B32</f>
         <v>-10200</v>
       </c>
       <c r="C36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>537.93224185639656</v>
       </c>
       <c r="D36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>725.20424185640036</v>
       </c>
       <c r="E36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>916.22168185639498</v>
       </c>
       <c r="F36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1111.0594706564</v>
       </c>
       <c r="G36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1309.7940152323988</v>
       </c>
       <c r="H36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1512.5032506999182</v>
       </c>
       <c r="I36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10544.93442902039</v>
       </c>
       <c r="J36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10755.8331176008</v>
       </c>
       <c r="K36" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10970.949779952813</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" ht="15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9465,7 +9447,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="86" t="s">
         <v>195</v>
       </c>
@@ -9489,7 +9471,7 @@
         <v>5870.3508163126744</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
@@ -9531,7 +9513,7 @@
         <v>1.1713778705624003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="78" t="s">
         <v>183</v>
       </c>
@@ -9539,39 +9521,39 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <f>C22/(1+$M$3)^C21</f>
+        <f t="shared" ref="C40:K40" si="10">C22/(1+$M$3)^C21</f>
         <v>18600</v>
       </c>
       <c r="D40">
-        <f>D22/(1+$M$3)^D21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="E40">
-        <f>E22/(1+$M$3)^E21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="F40">
-        <f>F22/(1+$M$3)^F21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="G40">
-        <f>G22/(1+$M$3)^G21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="H40">
-        <f>H22/(1+$M$3)^H21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="I40">
-        <f>I22/(1+$M$3)^I21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="J40">
-        <f>J22/(1+$M$3)^J21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="K40">
-        <f>K22/(1+$M$3)^K21</f>
+        <f t="shared" si="10"/>
         <v>18600</v>
       </c>
       <c r="L40" s="77" t="s">
@@ -9582,52 +9564,52 @@
         <v>0.18367456702688689</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="78" t="s">
         <v>180</v>
       </c>
       <c r="B41">
-        <f>B42+B48+B49</f>
+        <f t="shared" ref="B41:K41" si="11">B42+B48+B49</f>
         <v>10000</v>
       </c>
       <c r="C41" s="2">
-        <f>C42+C48+C49</f>
+        <f t="shared" si="11"/>
         <v>16482.956322706268</v>
       </c>
       <c r="D41" s="2">
-        <f>D42+D48+D49</f>
+        <f t="shared" si="11"/>
         <v>16316.623845790458</v>
       </c>
       <c r="E41" s="2">
-        <f>E42+E48+E49</f>
+        <f t="shared" si="11"/>
         <v>16153.552789990646</v>
       </c>
       <c r="F41" s="2">
-        <f>F42+F48+F49</f>
+        <f t="shared" si="11"/>
         <v>15993.679205873183</v>
       </c>
       <c r="G41" s="2">
-        <f>G42+G48+G49</f>
+        <f t="shared" si="11"/>
         <v>15836.940397914885</v>
       </c>
       <c r="H41" s="2">
-        <f>H42+H48+H49</f>
+        <f t="shared" si="11"/>
         <v>15683.274899916556</v>
       </c>
       <c r="I41" s="2">
-        <f>I42+I48+I49</f>
+        <f t="shared" si="11"/>
         <v>8000</v>
       </c>
       <c r="J41" s="2">
-        <f>J42+J48+J49</f>
+        <f t="shared" si="11"/>
         <v>8000</v>
       </c>
       <c r="K41">
-        <f>K42+K48+K49</f>
+        <f t="shared" si="11"/>
         <v>8000.0000000000009</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="83" t="s">
         <v>191</v>
       </c>
@@ -9635,43 +9617,43 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f>C24/(1+$M$3)^C39</f>
+        <f t="shared" ref="C42:K42" si="12">C24/(1+$M$3)^C39</f>
         <v>8000.0000000000009</v>
       </c>
       <c r="D42">
-        <f>D24/(1+$M$3)^D39</f>
+        <f t="shared" si="12"/>
         <v>7999.9999999999991</v>
       </c>
       <c r="E42">
-        <f>E24/(1+$M$3)^E39</f>
+        <f t="shared" si="12"/>
         <v>8000.0000000000009</v>
       </c>
       <c r="F42">
-        <f>F24/(1+$M$3)^F39</f>
+        <f t="shared" si="12"/>
         <v>8000</v>
       </c>
       <c r="G42">
-        <f>G24/(1+$M$3)^G39</f>
+        <f t="shared" si="12"/>
         <v>8000.0000000000009</v>
       </c>
       <c r="H42">
-        <f>H24/(1+$M$3)^H39</f>
+        <f t="shared" si="12"/>
         <v>8000</v>
       </c>
       <c r="I42">
-        <f>I24/(1+$M$3)^I39</f>
+        <f t="shared" si="12"/>
         <v>8000</v>
       </c>
       <c r="J42">
-        <f>J24/(1+$M$3)^J39</f>
+        <f t="shared" si="12"/>
         <v>8000</v>
       </c>
       <c r="K42">
-        <f>K24/(1+$M$3)^K39</f>
+        <f t="shared" si="12"/>
         <v>8000.0000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="83" t="s">
         <v>193</v>
       </c>
@@ -9686,7 +9668,7 @@
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="80" t="s">
         <v>184</v>
       </c>
@@ -9704,7 +9686,7 @@
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="80" t="s">
         <v>185</v>
       </c>
@@ -9722,7 +9704,7 @@
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="80" t="s">
         <v>186</v>
       </c>
@@ -9730,43 +9712,43 @@
         <v>0</v>
       </c>
       <c r="C46" s="82">
-        <f>C28/(1+$M$3)^C39</f>
+        <f t="shared" ref="C46:K46" si="13">C28/(1+$M$3)^C39</f>
         <v>5345.701420745484</v>
       </c>
       <c r="D46" s="82">
-        <f>D28/(1+$M$3)^D39</f>
+        <f t="shared" si="13"/>
         <v>5660.1544454952182</v>
       </c>
       <c r="E46" s="82">
-        <f>E28/(1+$M$3)^E39</f>
+        <f t="shared" si="13"/>
         <v>5993.1047069949364</v>
       </c>
       <c r="F46" s="82">
-        <f>F28/(1+$M$3)^F39</f>
+        <f t="shared" si="13"/>
         <v>6345.6402779946384</v>
       </c>
       <c r="G46" s="82">
-        <f>G28/(1+$M$3)^G39</f>
+        <f t="shared" si="13"/>
         <v>6718.9132355237343</v>
       </c>
       <c r="H46" s="82">
-        <f>H28/(1+$M$3)^H39</f>
+        <f t="shared" si="13"/>
         <v>7114.1434258486624</v>
       </c>
       <c r="I46" s="82">
-        <f>I28/(1+$M$3)^I39</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J46" s="82">
-        <f>J28/(1+$M$3)^J39</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K46" s="82">
-        <f>K28/(1+$M$3)^K39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="80" t="s">
         <v>187</v>
       </c>
@@ -9774,43 +9756,43 @@
         <v>0</v>
       </c>
       <c r="C47" s="16">
-        <f>C29/(1+$M$3)^C39</f>
+        <f t="shared" ref="C47:K47" si="14">C29/(1+$M$3)^C39</f>
         <v>3137.2549019607845</v>
       </c>
       <c r="D47" s="16">
-        <f>D29/(1+$M$3)^D39</f>
+        <f t="shared" si="14"/>
         <v>2656.4694002952419</v>
       </c>
       <c r="E47" s="16">
-        <f>E29/(1+$M$3)^E39</f>
+        <f t="shared" si="14"/>
         <v>2160.4480829957092</v>
       </c>
       <c r="F47" s="16">
-        <f>F29/(1+$M$3)^F39</f>
+        <f t="shared" si="14"/>
         <v>1648.0389278785437</v>
       </c>
       <c r="G47" s="16">
-        <f>G29/(1+$M$3)^G39</f>
+        <f t="shared" si="14"/>
         <v>1118.0271623911494</v>
       </c>
       <c r="H47" s="16">
-        <f>H29/(1+$M$3)^H39</f>
+        <f t="shared" si="14"/>
         <v>569.1314740678929</v>
       </c>
       <c r="I47" s="16">
-        <f>I29/(1+$M$3)^I39</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J47" s="16">
-        <f>J29/(1+$M$3)^J39</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <f>K29/(1+$M$3)^K39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="79" t="s">
         <v>188</v>
       </c>
@@ -9823,11 +9805,11 @@
         <v>8482.9563227062681</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48" si="5">SUM(D46:D47)</f>
+        <f t="shared" ref="D48" si="15">SUM(D46:D47)</f>
         <v>8316.6238457904601</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48" si="6">SUM(E46:E47)</f>
+        <f t="shared" ref="E48" si="16">SUM(E46:E47)</f>
         <v>8153.5527899906456</v>
       </c>
       <c r="F48" s="82">
@@ -9839,23 +9821,23 @@
         <v>7836.9403979148838</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48" si="7">SUM(H46:H47)</f>
+        <f t="shared" ref="H48" si="17">SUM(H46:H47)</f>
         <v>7683.2748999165551</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48" si="8">SUM(I46:I47)</f>
+        <f t="shared" ref="I48" si="18">SUM(I46:I47)</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J48" si="9">SUM(J46:J47)</f>
+        <f t="shared" ref="J48" si="19">SUM(J46:J47)</f>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" ref="K48" si="10">SUM(K46:K47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <f t="shared" ref="K48" si="20">SUM(K46:K47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="79" t="s">
         <v>189</v>
       </c>
@@ -9891,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="81" t="s">
         <v>190</v>
       </c>
@@ -9899,43 +9881,43 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <f>C32/(1+$M$3)^C39</f>
+        <f t="shared" ref="C50:K50" si="21">C32/(1+$M$3)^C39</f>
         <v>1600</v>
       </c>
       <c r="D50">
-        <f>D32/(1+$M$3)^D39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
       <c r="E50">
-        <f>E32/(1+$M$3)^E39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
       <c r="F50">
-        <f>F32/(1+$M$3)^F39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
       <c r="G50">
-        <f>G32/(1+$M$3)^G39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
       <c r="H50">
-        <f>H32/(1+$M$3)^H39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
       <c r="I50">
-        <f>I32/(1+$M$3)^I39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
       <c r="J50">
-        <f>J32/(1+$M$3)^J39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
       <c r="K50">
-        <f>K32/(1+$M$3)^K39</f>
+        <f t="shared" si="21"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51"/>
@@ -9948,48 +9930,48 @@
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:17" ht="15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B52">
-        <f>B40-B41</f>
+        <f t="shared" ref="B52:K52" si="22">B40-B41</f>
         <v>-10000</v>
       </c>
       <c r="C52" s="2">
-        <f>C40-C41</f>
+        <f t="shared" si="22"/>
         <v>2117.0436772937319</v>
       </c>
       <c r="D52" s="2">
-        <f>D40-D41</f>
+        <f t="shared" si="22"/>
         <v>2283.3761542095417</v>
       </c>
       <c r="E52">
-        <f>E40-E41</f>
+        <f t="shared" si="22"/>
         <v>2446.4472100093535</v>
       </c>
       <c r="F52">
-        <f>F40-F41</f>
+        <f t="shared" si="22"/>
         <v>2606.3207941268174</v>
       </c>
       <c r="G52">
-        <f>G40-G41</f>
+        <f t="shared" si="22"/>
         <v>2763.0596020851153</v>
       </c>
       <c r="H52">
-        <f>H40-H41</f>
+        <f t="shared" si="22"/>
         <v>2916.725100083444</v>
       </c>
       <c r="I52">
-        <f>I40-I41</f>
+        <f t="shared" si="22"/>
         <v>10600</v>
       </c>
       <c r="J52">
-        <f>J40-J41</f>
+        <f t="shared" si="22"/>
         <v>10600</v>
       </c>
       <c r="K52">
-        <f>K40-K41</f>
+        <f t="shared" si="22"/>
         <v>10600</v>
       </c>
       <c r="N52"/>
@@ -9997,52 +9979,52 @@
       <c r="P52"/>
       <c r="Q52"/>
     </row>
-    <row r="54" spans="1:17" ht="15">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="84" t="s">
         <v>112</v>
       </c>
       <c r="B54" s="85">
-        <f t="shared" ref="B54:K54" si="11">B52-B50</f>
+        <f t="shared" ref="B54:K54" si="23">B52-B50</f>
         <v>-10000</v>
       </c>
       <c r="C54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>517.04367729373189</v>
       </c>
       <c r="D54" s="89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>683.37615420954171</v>
       </c>
       <c r="E54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>846.44721000935351</v>
       </c>
       <c r="F54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1006.3207941268174</v>
       </c>
       <c r="G54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1163.0596020851153</v>
       </c>
       <c r="H54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1316.725100083444</v>
       </c>
       <c r="I54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>9000</v>
       </c>
       <c r="J54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>9000</v>
       </c>
       <c r="K54" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -10052,11 +10034,11 @@
       <c r="I55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="M62"/>
     </row>
   </sheetData>
@@ -10069,19 +10051,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF832C-4A65-4FC2-BE35-F9DA62EB6B4E}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -10117,7 +10099,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -10166,7 +10148,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -10209,7 +10191,7 @@
       </c>
       <c r="U3" s="53"/>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -10263,7 +10245,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -10317,7 +10299,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -10360,7 +10342,7 @@
       <c r="R6" s="54"/>
       <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -10403,7 +10385,7 @@
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -10439,7 +10421,7 @@
       </c>
       <c r="S8" s="57"/>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -10470,7 +10452,7 @@
       </c>
       <c r="S9" s="56"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -10507,7 +10489,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -10542,7 +10524,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -10575,7 +10557,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="53"/>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -10621,7 +10603,7 @@
       <c r="Q13" s="51"/>
       <c r="S13" s="54"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -10659,7 +10641,7 @@
       <c r="Q14" s="53"/>
       <c r="S14" s="53"/>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -10682,7 +10664,7 @@
       <c r="R15" s="53"/>
       <c r="S15" s="53"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -10708,7 +10690,7 @@
       <c r="R16" s="53"/>
       <c r="S16" s="53"/>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
@@ -10723,7 +10705,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
     </row>
-    <row r="18" spans="1:18" ht="15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -10754,7 +10736,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -10793,7 +10775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>154</v>
       </c>
@@ -10837,7 +10819,7 @@
       <c r="Q20" s="53"/>
       <c r="R20" s="56"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -10888,7 +10870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="78" t="s">
         <v>183</v>
       </c>
@@ -10941,7 +10923,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="78" t="s">
         <v>180</v>
       </c>
@@ -10995,7 +10977,7 @@
       </c>
       <c r="R23" s="56"/>
     </row>
-    <row r="24" spans="1:18" s="53" customFormat="1" ht="15">
+    <row r="24" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="94" t="s">
         <v>200</v>
       </c>
@@ -11021,7 +11003,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="53" customFormat="1" ht="15">
+    <row r="25" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="95" t="s">
         <v>184</v>
       </c>
@@ -11050,7 +11032,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="94" t="s">
         <v>191</v>
       </c>
@@ -11105,7 +11087,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="L27" s="1"/>
@@ -11118,7 +11100,7 @@
       </c>
       <c r="R27" s="56"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1">
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -11127,39 +11109,39 @@
         <v>-50235</v>
       </c>
       <c r="C28" s="2">
-        <f>C22-C23</f>
+        <f t="shared" ref="C28:K28" si="4">C22-C23</f>
         <v>12068.64</v>
       </c>
       <c r="D28">
-        <f>D22-D23</f>
+        <f t="shared" si="4"/>
         <v>12310.0128</v>
       </c>
       <c r="E28">
-        <f>E22-E23</f>
+        <f t="shared" si="4"/>
         <v>12556.213055999999</v>
       </c>
       <c r="F28">
-        <f>F22-F23</f>
+        <f t="shared" si="4"/>
         <v>12807.33731712</v>
       </c>
       <c r="G28">
-        <f>G22-G23</f>
+        <f t="shared" si="4"/>
         <v>13063.484063462402</v>
       </c>
       <c r="H28">
-        <f>H22-H23</f>
+        <f t="shared" si="4"/>
         <v>13324.753744731646</v>
       </c>
       <c r="I28">
-        <f>I22-I23</f>
+        <f t="shared" si="4"/>
         <v>13591.24881962628</v>
       </c>
       <c r="J28">
-        <f>J22-J23</f>
+        <f t="shared" si="4"/>
         <v>13863.073796018807</v>
       </c>
       <c r="K28">
-        <f>K22-K23</f>
+        <f t="shared" si="4"/>
         <v>14140.335271939182</v>
       </c>
       <c r="L28" s="1"/>
@@ -11172,7 +11154,7 @@
       </c>
       <c r="R28" s="67"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1">
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -11187,7 +11169,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="84" t="s">
         <v>199</v>
       </c>
@@ -11200,35 +11182,35 @@
         <v>12068.64</v>
       </c>
       <c r="D30" s="85">
-        <f t="shared" ref="D30:K30" si="4">D28</f>
+        <f t="shared" ref="D30:K30" si="5">D28</f>
         <v>12310.0128</v>
       </c>
       <c r="E30" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12556.213055999999</v>
       </c>
       <c r="F30" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12807.33731712</v>
       </c>
       <c r="G30" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13063.484063462402</v>
       </c>
       <c r="H30" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13324.753744731646</v>
       </c>
       <c r="I30" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13591.24881962628</v>
       </c>
       <c r="J30" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13863.073796018807</v>
       </c>
       <c r="K30" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14140.335271939182</v>
       </c>
       <c r="L30" s="74"/>
@@ -11236,7 +11218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="L31" s="23" t="s">
         <v>98</v>
@@ -11246,7 +11228,7 @@
         <v>15958.796607992474</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="86" t="s">
         <v>195</v>
       </c>
@@ -11264,7 +11246,7 @@
         <v>-11.986107332855445</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
@@ -11306,7 +11288,7 @@
         <v>0.18403878541880081</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="78" t="s">
         <v>183</v>
       </c>
@@ -11314,45 +11296,45 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <f>C22/(1+$S$3)^C21</f>
+        <f t="shared" ref="C34:K34" si="6">C22/(1+$S$3)^C21</f>
         <v>18600</v>
       </c>
       <c r="D34">
-        <f>D22/(1+$S$3)^D21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="E34">
-        <f>E22/(1+$S$3)^E21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="F34">
-        <f>F22/(1+$S$3)^F21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="G34">
-        <f>G22/(1+$S$3)^G21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="H34">
-        <f>H22/(1+$S$3)^H21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="I34">
-        <f>I22/(1+$S$3)^I21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="J34">
-        <f>J22/(1+$S$3)^J21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="K34">
-        <f>K22/(1+$S$3)^K21</f>
+        <f t="shared" si="6"/>
         <v>18600</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="78" t="s">
         <v>180</v>
       </c>
@@ -11365,48 +11347,48 @@
         <v>7000</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:K35" si="5">D23/(1+$S$3)^D21</f>
+        <f t="shared" ref="D35:K35" si="7">D23/(1+$S$3)^D21</f>
         <v>7000</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6999.9999999999991</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6999.9999999999991</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="94" t="s">
         <v>200</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" s="53" customFormat="1" ht="15">
+    <row r="37" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="95" t="s">
         <v>184</v>
       </c>
@@ -11426,7 +11408,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" s="53" customFormat="1" ht="15">
+    <row r="38" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="94" t="s">
         <v>201</v>
       </c>
@@ -11434,98 +11416,98 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <f>C26/(1+$S$3)^C33</f>
+        <f t="shared" ref="C38:K38" si="8">C26/(1+$S$3)^C33</f>
         <v>7000</v>
       </c>
       <c r="D38">
-        <f>D26/(1+$S$3)^D33</f>
+        <f t="shared" si="8"/>
         <v>7000</v>
       </c>
       <c r="E38">
-        <f>E26/(1+$S$3)^E33</f>
+        <f t="shared" si="8"/>
         <v>7000</v>
       </c>
       <c r="F38">
-        <f>F26/(1+$S$3)^F33</f>
+        <f t="shared" si="8"/>
         <v>7000</v>
       </c>
       <c r="G38">
-        <f>G26/(1+$S$3)^G33</f>
+        <f t="shared" si="8"/>
         <v>7000</v>
       </c>
       <c r="H38">
-        <f>H26/(1+$S$3)^H33</f>
+        <f t="shared" si="8"/>
         <v>7000</v>
       </c>
       <c r="I38">
-        <f>I26/(1+$S$3)^I33</f>
+        <f t="shared" si="8"/>
         <v>6999.9999999999991</v>
       </c>
       <c r="J38">
-        <f>J26/(1+$S$3)^J33</f>
+        <f t="shared" si="8"/>
         <v>7000</v>
       </c>
       <c r="K38">
-        <f>K26/(1+$S$3)^K33</f>
+        <f t="shared" si="8"/>
         <v>6999.9999999999991</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" ht="15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:K40" si="6">B34-B35</f>
+        <f t="shared" ref="B40:K40" si="9">B34-B35</f>
         <v>49250</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="J40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="K40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11600</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="53"/>
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
@@ -11538,7 +11520,7 @@
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
     </row>
-    <row r="42" spans="1:13" ht="15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="84" t="s">
         <v>199</v>
       </c>
@@ -11551,98 +11533,98 @@
         <v>11600</v>
       </c>
       <c r="D42" s="89">
-        <f t="shared" ref="D42:K42" si="7">D34-D35</f>
+        <f t="shared" ref="D42:K42" si="10">D34-D35</f>
         <v>11600</v>
       </c>
       <c r="E42" s="89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11600</v>
       </c>
       <c r="F42" s="89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11600</v>
       </c>
       <c r="G42" s="89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11600</v>
       </c>
       <c r="H42" s="89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11600</v>
       </c>
       <c r="I42" s="89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11600</v>
       </c>
       <c r="J42" s="89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11600</v>
       </c>
       <c r="K42" s="89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11600</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L45" s="53"/>
       <c r="M45" s="53"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L46" s="53"/>
       <c r="M46" s="53"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L47" s="53"/>
       <c r="M47" s="53"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
     </row>
-    <row r="49" spans="12:13">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L49" s="53"/>
       <c r="M49" s="53"/>
     </row>
-    <row r="50" spans="12:13">
+    <row r="50" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
     </row>
-    <row r="51" spans="12:13">
+    <row r="51" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L51" s="53"/>
       <c r="M51" s="53"/>
     </row>
-    <row r="52" spans="12:13">
+    <row r="52" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L52" s="53"/>
       <c r="M52" s="53"/>
     </row>
-    <row r="53" spans="12:13">
+    <row r="53" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L53" s="53"/>
       <c r="M53" s="53"/>
     </row>
-    <row r="54" spans="12:13">
+    <row r="54" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
     </row>
-    <row r="55" spans="12:13">
+    <row r="55" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L55" s="53"/>
       <c r="M55" s="53"/>
     </row>
-    <row r="56" spans="12:13">
+    <row r="56" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L56" s="53"/>
       <c r="M56" s="53"/>
     </row>
-    <row r="57" spans="12:13">
+    <row r="57" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L57" s="53"/>
       <c r="M57" s="53"/>
     </row>
-    <row r="58" spans="12:13">
+    <row r="58" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L58" s="53"/>
       <c r="M58" s="53"/>
     </row>
-    <row r="59" spans="12:13">
+    <row r="59" spans="12:13" x14ac:dyDescent="0.35">
       <c r="M59" s="53"/>
     </row>
-    <row r="60" spans="12:13">
+    <row r="60" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L60" s="53"/>
       <c r="M60" s="53"/>
     </row>
@@ -11655,38 +11637,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCAAF9-CCF7-47AD-A405-61DFB4659ECB}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="127" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="127" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="127" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="127" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="127" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="127" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="127" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="127" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="127" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="127" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="127" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="127" customWidth="1"/>
-    <col min="13" max="13" width="17.875" style="127" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="127" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="127" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="127" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="127" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="127" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="127" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="127" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="127" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="127" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="127" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="127" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="127" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" style="127" customWidth="1"/>
     <col min="14" max="14" width="9" style="127"/>
-    <col min="15" max="15" width="22.125" style="127" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="127" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="127" customWidth="1"/>
+    <col min="15" max="15" width="22.08984375" style="127" customWidth="1"/>
+    <col min="16" max="16" width="16.36328125" style="127" customWidth="1"/>
+    <col min="17" max="17" width="18.453125" style="127" customWidth="1"/>
     <col min="18" max="16384" width="9" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="138" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="56.1" customHeight="1">
+    <row r="2" spans="1:19" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="128"/>
       <c r="B2" s="139" t="s">
         <v>244</v>
@@ -11721,29 +11703,29 @@
       </c>
       <c r="Q2" s="143"/>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="220">
+      <c r="B3" s="206">
         <v>1</v>
       </c>
-      <c r="C3" s="221">
+      <c r="C3" s="207">
         <v>45000000</v>
       </c>
-      <c r="D3" s="221">
+      <c r="D3" s="207">
         <f>C3*40%</f>
         <v>18000000</v>
       </c>
-      <c r="E3" s="221">
+      <c r="E3" s="207">
         <f>C3*40%</f>
         <v>18000000</v>
       </c>
-      <c r="F3" s="221">
+      <c r="F3" s="207">
         <f>C3*20%</f>
         <v>9000000</v>
       </c>
-      <c r="G3" s="221">
+      <c r="G3" s="207">
         <f>C3*20%</f>
         <v>9000000</v>
       </c>
@@ -11765,29 +11747,29 @@
       </c>
       <c r="Q3" s="131"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="220">
+      <c r="B4" s="206">
         <v>2</v>
       </c>
-      <c r="C4" s="221">
+      <c r="C4" s="207">
         <v>30000000</v>
       </c>
-      <c r="D4" s="221">
+      <c r="D4" s="207">
         <f>C4*40%</f>
         <v>12000000</v>
       </c>
-      <c r="E4" s="221">
+      <c r="E4" s="207">
         <f>C4*40%</f>
         <v>12000000</v>
       </c>
-      <c r="F4" s="221">
+      <c r="F4" s="207">
         <f>C4*20%</f>
         <v>6000000</v>
       </c>
-      <c r="G4" s="221">
+      <c r="G4" s="207">
         <f>C4*20%</f>
         <v>6000000</v>
       </c>
@@ -11808,30 +11790,29 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="220">
+      <c r="B5" s="206">
         <v>1</v>
       </c>
-      <c r="C5" s="222">
+      <c r="C5" s="208">
         <f>SUM(D5:F5)</f>
         <v>41400000</v>
       </c>
-      <c r="D5" s="223">
+      <c r="D5" s="127">
         <f>D3*Q5</f>
         <v>12600000</v>
       </c>
-      <c r="E5" s="224">
+      <c r="E5" s="162">
         <f>E3</f>
         <v>18000000</v>
       </c>
-      <c r="F5" s="223">
+      <c r="F5" s="127">
         <f>F3*Q4</f>
         <v>10800000</v>
       </c>
-      <c r="G5" s="223"/>
       <c r="H5" s="131"/>
       <c r="N5" s="148" t="s">
         <v>233</v>
@@ -11846,14 +11827,14 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="132" t="s">
         <v>117</v>
       </c>
       <c r="B6" s="133">
         <v>2</v>
       </c>
-      <c r="C6" s="219">
+      <c r="C6" s="205">
         <f>SUM(D6:F6)</f>
         <v>27600000</v>
       </c>
@@ -11861,7 +11842,7 @@
         <f>D4*Q5</f>
         <v>8400000</v>
       </c>
-      <c r="E6" s="218">
+      <c r="E6" s="204">
         <f>E4</f>
         <v>12000000</v>
       </c>
@@ -11872,22 +11853,13 @@
       <c r="G6" s="134"/>
       <c r="H6" s="135"/>
     </row>
-    <row r="7" spans="1:17" ht="24.75" customHeight="1">
-      <c r="N7" s="225"/>
-      <c r="O7" s="225"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="N8" s="225"/>
-      <c r="O8" s="225"/>
-      <c r="P8" s="225"/>
-      <c r="Q8" s="225"/>
-    </row>
-    <row r="9" spans="1:17" ht="30">
+    </row>
+    <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="128"/>
       <c r="B9" s="139" t="s">
         <v>253</v>
@@ -11928,39 +11900,42 @@
         <v>262</v>
       </c>
       <c r="Q9" s="161"/>
-    </row>
-    <row r="10" spans="1:17" ht="15">
+      <c r="S9" s="212" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="220">
+      <c r="C10" s="206">
         <v>4</v>
       </c>
-      <c r="D10" s="221">
+      <c r="D10" s="207">
         <v>2200</v>
       </c>
-      <c r="E10" s="221">
+      <c r="E10" s="207">
         <f>D10/2</f>
         <v>1100</v>
       </c>
-      <c r="F10" s="221">
+      <c r="F10" s="207">
         <f>D10/2</f>
         <v>1100</v>
       </c>
-      <c r="G10" s="221">
+      <c r="G10" s="207">
         <v>2000</v>
       </c>
-      <c r="H10" s="221">
+      <c r="H10" s="207">
         <f>G10*O3</f>
         <v>12000</v>
       </c>
-      <c r="I10" s="220">
+      <c r="I10" s="206">
         <v>50</v>
       </c>
-      <c r="J10" s="220">
+      <c r="J10" s="206">
         <v>150</v>
       </c>
       <c r="K10" s="137">
@@ -11982,37 +11957,37 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="29.25" thickBot="1">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="220" t="s">
+      <c r="B11" s="206" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="220">
+      <c r="C11" s="206">
         <v>7</v>
       </c>
-      <c r="D11" s="221">
+      <c r="D11" s="207">
         <v>1800</v>
       </c>
-      <c r="E11" s="220">
+      <c r="E11" s="206">
         <v>600</v>
       </c>
-      <c r="F11" s="221">
+      <c r="F11" s="207">
         <f>D11-E11</f>
         <v>1200</v>
       </c>
-      <c r="G11" s="220">
+      <c r="G11" s="206">
         <v>700</v>
       </c>
-      <c r="H11" s="221">
+      <c r="H11" s="207">
         <f>G11*O3</f>
         <v>4200</v>
       </c>
-      <c r="I11" s="220">
+      <c r="I11" s="206">
         <v>50</v>
       </c>
-      <c r="J11" s="220">
+      <c r="J11" s="206">
         <v>80</v>
       </c>
       <c r="K11" s="137">
@@ -12038,28 +12013,22 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="222">
+      <c r="D12" s="208">
         <f>SUM(E12:F12)</f>
         <v>2420</v>
       </c>
-      <c r="E12" s="223">
+      <c r="E12" s="127">
         <f>E10*$Q$4</f>
         <v>1320</v>
       </c>
-      <c r="F12" s="224">
+      <c r="F12" s="162">
         <f>F10</f>
         <v>1100</v>
       </c>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
       <c r="K12" s="131"/>
       <c r="M12" s="65" t="s">
         <v>235</v>
@@ -12068,13 +12037,13 @@
       <c r="O12" s="53"/>
       <c r="Q12" s="131"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="132" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="134"/>
-      <c r="D13" s="219">
+      <c r="D13" s="205">
         <f>SUM(E13:F13)</f>
         <v>1920</v>
       </c>
@@ -12082,7 +12051,7 @@
         <f>E11*$Q$4</f>
         <v>720</v>
       </c>
-      <c r="F13" s="218">
+      <c r="F13" s="204">
         <f>F11</f>
         <v>1200</v>
       </c>
@@ -12111,7 +12080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="M14" s="122" t="s">
         <v>236</v>
       </c>
@@ -12132,7 +12101,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="125" t="s">
         <v>263</v>
       </c>
@@ -12146,7 +12115,7 @@
       </c>
       <c r="Q15" s="131"/>
     </row>
-    <row r="16" spans="1:17" ht="30">
+    <row r="16" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="128"/>
       <c r="B16" s="151" t="s">
         <v>244</v>
@@ -12180,7 +12149,7 @@
       </c>
       <c r="Q16" s="131"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="129" t="s">
         <v>251</v>
       </c>
@@ -12217,7 +12186,7 @@
       </c>
       <c r="Q17" s="131"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="132" t="s">
         <v>117</v>
       </c>
@@ -12241,7 +12210,7 @@
       </c>
       <c r="Q18" s="131"/>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="M19" s="122" t="s">
         <v>241</v>
       </c>
@@ -12256,7 +12225,7 @@
       </c>
       <c r="Q19" s="131"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M20" s="123" t="s">
         <v>242</v>
       </c>
@@ -12271,7 +12240,7 @@
       </c>
       <c r="Q20" s="165"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="M21" s="127" t="s">
         <v>269</v>
       </c>
@@ -12280,7 +12249,7 @@
         <v>32562000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" customFormat="1" ht="15">
+    <row r="25" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>114</v>
       </c>
@@ -12289,12 +12258,12 @@
       <c r="F25" s="51"/>
       <c r="G25" s="90"/>
     </row>
-    <row r="26" spans="1:17" customFormat="1" ht="15" thickBot="1">
+    <row r="26" spans="1:17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:17" customFormat="1" ht="15">
+    <row r="27" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>203</v>
       </c>
@@ -12325,7 +12294,7 @@
       <c r="K27" t="s">
         <v>156</v>
       </c>
-      <c r="L27" s="226" t="s">
+      <c r="L27" s="209" t="s">
         <v>156</v>
       </c>
       <c r="M27" t="s">
@@ -12337,8 +12306,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:17" customFormat="1" ht="15">
-      <c r="A28" s="213" t="s">
+    <row r="28" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="199" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="85">
@@ -12374,7 +12343,7 @@
       <c r="L28" s="85">
         <v>11</v>
       </c>
-      <c r="M28" s="214">
+      <c r="M28" s="200">
         <v>12</v>
       </c>
       <c r="N28" s="23" t="s">
@@ -12382,11 +12351,11 @@
       </c>
       <c r="O28" s="76">
         <f>NPV(O27,B39:M39)</f>
-        <v>-17482604.848976083</v>
+        <v>31969190.992233749</v>
       </c>
       <c r="Q28" s="166"/>
     </row>
-    <row r="29" spans="1:17" customFormat="1" ht="15">
+    <row r="29" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="78" t="s">
         <v>274</v>
       </c>
@@ -12397,11 +12366,11 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <f>$P$21</f>
+        <v>32562000</v>
+      </c>
+      <c r="E29">
         <f t="shared" ref="D29:M29" si="0">$P$21</f>
-        <v>32562000</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
         <v>32562000</v>
       </c>
       <c r="F29">
@@ -12441,21 +12410,21 @@
       </c>
       <c r="O29" s="24">
         <f>NPV(O27,B29:M29)/NPV(O27,B30:M30)</f>
-        <v>0.87605601590003179</v>
+        <v>1.3490060743513321</v>
       </c>
       <c r="Q29" s="166"/>
     </row>
-    <row r="30" spans="1:17" customFormat="1" ht="15">
+    <row r="30" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="78" t="s">
         <v>180</v>
       </c>
       <c r="B30" s="2">
         <f>B31+B32+B36</f>
-        <v>45000000</v>
+        <v>8999999.9999999981</v>
       </c>
       <c r="C30" s="2">
         <f>C31+C32+C36</f>
-        <v>30000000</v>
+        <v>5999999.9999999991</v>
       </c>
       <c r="D30" s="2">
         <f>D31+D32+D36</f>
@@ -12501,7 +12470,7 @@
       <c r="O30" s="24"/>
       <c r="Q30" s="166"/>
     </row>
-    <row r="31" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
+    <row r="31" spans="1:17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="166" t="s">
         <v>271</v>
       </c>
@@ -12556,11 +12525,11 @@
       </c>
       <c r="O31" s="37">
         <f>IRR(B39:M39)</f>
-        <v>7.9466888055107043E-2</v>
+        <v>0.57324799047893005</v>
       </c>
       <c r="Q31" s="166"/>
     </row>
-    <row r="32" spans="1:17" customFormat="1" ht="15">
+    <row r="32" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="166" t="s">
         <v>273</v>
       </c>
@@ -12614,8 +12583,8 @@
       <c r="O32" s="4"/>
       <c r="Q32" s="83"/>
     </row>
-    <row r="33" spans="1:22" customFormat="1" ht="15">
-      <c r="A33" s="215"/>
+    <row r="33" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="201"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -12631,8 +12600,8 @@
       <c r="N33" s="1"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:22" customFormat="1" ht="15">
-      <c r="A34" s="215"/>
+    <row r="34" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="201"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12648,24 +12617,24 @@
       <c r="N34" s="1"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:22" customFormat="1" ht="15">
+    <row r="35" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="83" t="s">
         <v>193</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:22" customFormat="1" ht="15">
+    <row r="36" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="80" t="s">
         <v>184</v>
       </c>
       <c r="B36" s="2">
-        <f>C3</f>
-        <v>45000000</v>
+        <f>C3*(1-$J$3)</f>
+        <v>8999999.9999999981</v>
       </c>
       <c r="C36" s="2">
-        <f>C4</f>
-        <v>30000000</v>
+        <f>C4*(1-$J$3)</f>
+        <v>5999999.9999999991</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -12700,17 +12669,17 @@
       <c r="U36" s="52"/>
       <c r="V36" s="53"/>
     </row>
-    <row r="37" spans="1:22" customFormat="1">
+    <row r="37" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="80" t="s">
         <v>185</v>
       </c>
       <c r="B37">
         <f>B36*$J$3</f>
-        <v>36000000</v>
+        <v>7199999.9999999991</v>
       </c>
       <c r="C37">
         <f>C36*$J$3</f>
-        <v>24000000</v>
+        <v>4799999.9999999991</v>
       </c>
       <c r="D37" s="127"/>
       <c r="E37" s="127"/>
@@ -12725,25 +12694,25 @@
       <c r="U37" s="53"/>
       <c r="V37" s="53"/>
     </row>
-    <row r="38" spans="1:22" customFormat="1" ht="15" thickBot="1">
+    <row r="38" spans="1:22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="53"/>
       <c r="U38" s="53"/>
       <c r="V38" s="53"/>
     </row>
-    <row r="39" spans="1:22" customFormat="1" ht="15.75" thickBot="1">
+    <row r="39" spans="1:22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="169" t="s">
         <v>112</v>
       </c>
       <c r="B39" s="170">
         <f>B29-B30</f>
-        <v>-45000000</v>
+        <v>-8999999.9999999981</v>
       </c>
       <c r="C39" s="170">
         <f>C29-C30</f>
-        <v>-30000000</v>
+        <v>-5999999.9999999991</v>
       </c>
       <c r="D39" s="170">
-        <f t="shared" ref="C39:M39" si="4">D29-D30</f>
+        <f t="shared" ref="D39:M39" si="4">D29-D30</f>
         <v>11682000</v>
       </c>
       <c r="E39" s="170">
@@ -12783,14 +12752,14 @@
         <v>11682000</v>
       </c>
     </row>
-    <row r="40" spans="1:22" customFormat="1"/>
-    <row r="41" spans="1:22" customFormat="1">
+    <row r="40" spans="1:22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="127"/>
     </row>
-    <row r="42" spans="1:22" customFormat="1">
+    <row r="42" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="127"/>
     </row>
-    <row r="43" spans="1:22" customFormat="1" ht="15">
+    <row r="43" spans="1:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="92" t="s">
         <v>198</v>
       </c>
@@ -12799,7 +12768,7 @@
       <c r="F43" s="51"/>
       <c r="G43" s="90"/>
     </row>
-    <row r="44" spans="1:22" ht="15" thickBot="1">
+    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -12818,7 +12787,7 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:22" ht="15">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45" t="s">
         <v>203</v>
@@ -12862,8 +12831,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15">
-      <c r="A46" s="213" t="s">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A46" s="199" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="85">
@@ -12899,7 +12868,7 @@
       <c r="L46" s="85">
         <v>11</v>
       </c>
-      <c r="M46" s="214">
+      <c r="M46" s="200">
         <v>12</v>
       </c>
       <c r="N46" s="23" t="s">
@@ -12910,7 +12879,7 @@
         <v>-15474685.693143323</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="78" t="s">
         <v>274</v>
       </c>
@@ -12925,7 +12894,7 @@
         <v>32562000</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="D47:M47" si="5">$P$21</f>
+        <f t="shared" ref="E47:M47" si="5">$P$21</f>
         <v>32562000</v>
       </c>
       <c r="F47">
@@ -12968,7 +12937,7 @@
         <v>0.88870699481824644</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="78" t="s">
         <v>180</v>
       </c>
@@ -13023,7 +12992,7 @@
       <c r="N48" s="23"/>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75" thickBot="1">
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="166" t="s">
         <v>271</v>
       </c>
@@ -13081,7 +13050,7 @@
         <v>8.2390296761337023E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="166" t="s">
         <v>273</v>
       </c>
@@ -13134,8 +13103,8 @@
       <c r="N50" s="1"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="15">
-      <c r="A51" s="215"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="201"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -13151,8 +13120,8 @@
       <c r="N51" s="1"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="15">
-      <c r="A52" s="215"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="201"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
@@ -13168,7 +13137,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" ht="15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="83" t="s">
         <v>193</v>
       </c>
@@ -13187,7 +13156,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="80" t="s">
         <v>184</v>
       </c>
@@ -13232,7 +13201,7 @@
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="80" t="s">
         <v>185</v>
       </c>
@@ -13247,7 +13216,7 @@
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1">
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="53"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -13264,7 +13233,7 @@
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="169" t="s">
         <v>112</v>
       </c>
@@ -13281,7 +13250,7 @@
         <v>10908000</v>
       </c>
       <c r="E57" s="170">
-        <f t="shared" ref="D57:N57" si="17">E47-E48</f>
+        <f t="shared" ref="E57:M57" si="17">E47-E48</f>
         <v>10908000</v>
       </c>
       <c r="F57" s="170">
@@ -13328,27 +13297,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5F46C2-30FE-43AE-A694-2BA34C4EAA6B}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" customWidth="1"/>
+    <col min="11" max="13" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="171" t="s">
         <v>275</v>
       </c>
@@ -13358,19 +13327,14 @@
       <c r="C1" s="171" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191" t="s">
+      <c r="J1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="191" t="s">
+      <c r="K1" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-    </row>
-    <row r="2" spans="1:15" ht="15">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="172" t="s">
         <v>277</v>
       </c>
@@ -13381,125 +13345,112 @@
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="22"/>
-      <c r="I2" s="193" t="s">
+      <c r="I2" s="187" t="s">
         <v>315</v>
       </c>
-      <c r="J2" s="174">
+      <c r="J2" s="70">
         <v>1</v>
       </c>
-      <c r="K2" s="174">
+      <c r="K2" s="70">
         <v>1000</v>
       </c>
-      <c r="L2" s="174"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2" s="70"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="173" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="70">
         <v>5</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="174" t="s">
         <v>279</v>
       </c>
       <c r="E3" s="26"/>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="I3" s="70"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="70"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="173" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="70">
         <v>300</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="174" t="s">
         <v>281</v>
       </c>
       <c r="E4" s="173" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="174">
+      <c r="F4" s="70">
         <v>900</v>
       </c>
-      <c r="G4" s="175"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+      <c r="G4" s="174"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="173" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="174">
+      <c r="B5" s="70">
         <v>400</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="174" t="s">
         <v>281</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="178">
+      <c r="F5" s="179"/>
+      <c r="G5" s="177">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="184" t="s">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="182" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="177">
+      <c r="B6" s="176">
         <v>-0.01</v>
       </c>
-      <c r="C6" s="178"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="70"/>
       <c r="I6" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="201" t="s">
+      <c r="J6" s="191" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="202" t="s">
+      <c r="K6" s="192" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="179"/>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
       <c r="E7" s="172" t="s">
         <v>290</v>
       </c>
       <c r="F7" s="21"/>
-      <c r="G7" s="182"/>
+      <c r="G7" s="180"/>
       <c r="I7" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="J7" s="189"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="56">
         <f>(B3*1000)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="172" t="s">
         <v>283</v>
       </c>
@@ -13508,312 +13459,260 @@
       <c r="E8" s="173" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="174">
+      <c r="F8" s="70">
         <v>140</v>
       </c>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I8" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="J8" s="189"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="56">
         <f>B4</f>
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
-      <c r="A9" s="185" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="180">
+      <c r="B9" s="178">
         <v>0.05</v>
       </c>
       <c r="C9" s="70"/>
       <c r="E9" s="173" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="174">
+      <c r="F9" s="70">
         <v>120</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I9" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="189"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="56">
         <f>K7-K8</f>
         <v>4700</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="185" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="183" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="180">
+      <c r="B10" s="178">
         <v>0.03</v>
       </c>
       <c r="C10" s="70"/>
       <c r="E10" s="173" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="174">
+      <c r="F10" s="70">
         <v>450</v>
       </c>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I10" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="J10" s="189" t="s">
+      <c r="J10" s="53" t="s">
         <v>312</v>
       </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="173" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="180">
+      <c r="B11" s="178">
         <v>0.02</v>
       </c>
       <c r="C11" s="70"/>
       <c r="E11" s="173" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="174">
+      <c r="F11" s="70">
         <v>500</v>
       </c>
-      <c r="G11" s="175" t="s">
+      <c r="G11" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I11" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="189"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="56">
         <f>B5</f>
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A12" s="184" t="s">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="182" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="192">
+      <c r="B12" s="186">
         <v>0.02</v>
       </c>
       <c r="E12" s="173" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="174">
+      <c r="F12" s="70">
         <v>800</v>
       </c>
-      <c r="G12" s="175" t="s">
+      <c r="G12" s="174" t="s">
         <v>281</v>
       </c>
       <c r="I12" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="J12" s="189"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="56">
         <f>K9+K11</f>
         <v>5100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E13" s="176" t="s">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="175" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="181">
+      <c r="F13" s="179">
         <v>0.3</v>
       </c>
-      <c r="G13" s="178"/>
-      <c r="I13" s="188" t="s">
+      <c r="G13" s="177"/>
+      <c r="I13" s="185" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="200"/>
+      <c r="J13" s="190"/>
       <c r="K13" s="67">
         <f>K12*(F4*G5)</f>
         <v>573750000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="I14" s="197"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-    </row>
-    <row r="15" spans="1:15" ht="15">
-      <c r="A15" s="203" t="s">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="189"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="193" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="22"/>
       <c r="E15" s="172" t="s">
         <v>298</v>
       </c>
-      <c r="F15" s="183"/>
+      <c r="F15" s="181"/>
       <c r="G15" s="22"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-    </row>
-    <row r="16" spans="1:15" ht="15">
-      <c r="A16" s="204" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="173" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="210">
+      <c r="B16" s="196">
         <v>1500000</v>
       </c>
-      <c r="C16" s="191"/>
       <c r="E16" s="173" t="s">
         <v>299</v>
       </c>
-      <c r="F16" s="174">
+      <c r="F16" s="70">
         <v>1.3</v>
       </c>
       <c r="G16" s="24"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="204" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="205">
+      <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="185" t="s">
+      <c r="E17" s="183" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="179">
+      <c r="F17" s="71">
         <v>0.1</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="206" t="s">
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="175" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="207">
+      <c r="B18" s="37">
         <v>0.3</v>
       </c>
-      <c r="C18" s="190" t="s">
+      <c r="C18" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="186"/>
       <c r="E18" s="173" t="s">
         <v>300</v>
       </c>
-      <c r="F18" s="174">
+      <c r="F18" s="70">
         <v>5</v>
       </c>
-      <c r="G18" s="175" t="s">
+      <c r="G18" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="191"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="184" t="s">
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="F19" s="177">
+      <c r="F19" s="176">
         <v>0.11</v>
       </c>
       <c r="G19" s="31"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-    </row>
-    <row r="20" spans="1:15" ht="15">
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
-      <c r="I20" s="174"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="217">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F20" s="51"/>
+      <c r="G20" s="90"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F21" s="203">
         <f>(1+F19)/(1+B11)-1</f>
         <v>8.8235294117647189E-2</v>
       </c>
-      <c r="G21" s="195"/>
-      <c r="I21" s="191"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="I22" s="191"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="187" t="s">
+      <c r="G21" s="90"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="186"/>
-    </row>
-    <row r="26" spans="1:15" ht="15">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
       <c r="F26" s="51"/>
       <c r="G26" s="90"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E27" s="186"/>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F27" s="51"/>
       <c r="G27" s="90"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="186"/>
       <c r="F28" s="51"/>
       <c r="G28" s="90"/>
       <c r="N28" s="74"/>
@@ -13822,8 +13721,8 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15">
-      <c r="A29" s="213" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="199" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="85">
@@ -13859,7 +13758,7 @@
       <c r="L29" s="85">
         <v>11</v>
       </c>
-      <c r="M29" s="214">
+      <c r="M29" s="200">
         <v>12</v>
       </c>
       <c r="N29" s="23" t="s">
@@ -13870,7 +13769,7 @@
         <v>3386189844.9033451</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="78" t="s">
         <v>183</v>
       </c>
@@ -13886,7 +13785,7 @@
         <v>608868090</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="D30:M30" si="0">$K$13*(1+$B$11)^E29</f>
+        <f t="shared" ref="E30:M30" si="0">$K$13*(1+$B$11)^E29</f>
         <v>621045451.79999995</v>
       </c>
       <c r="F30">
@@ -13929,7 +13828,7 @@
         <v>2151.0581936412009</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="78" t="s">
         <v>180</v>
       </c>
@@ -13942,7 +13841,7 @@
         <v>560140.14091171906</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="C31:M31" si="1">D37+D38+D39</f>
+        <f t="shared" ref="D31:M31" si="1">D37+D38+D39</f>
         <v>560140.14091171895</v>
       </c>
       <c r="E31" s="2">
@@ -13984,8 +13883,8 @@
       <c r="N31" s="23"/>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A32" s="208" t="s">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="194" t="s">
         <v>313</v>
       </c>
       <c r="N32" s="77" t="s">
@@ -13996,25 +13895,25 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="212">
+      <c r="B33" s="198">
         <f>$B$16*(1+$B$11)^$B$29</f>
         <v>1530000</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="212">
+      <c r="B34" s="198">
         <f>B33*B17</f>
         <v>1530000</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="80" t="s">
         <v>186</v>
       </c>
@@ -14066,7 +13965,7 @@
         <v>222085.71253308016</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="80" t="s">
         <v>187</v>
       </c>
@@ -14118,8 +14017,8 @@
         <v>24429.428378638815</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="211" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="197" t="s">
         <v>188</v>
       </c>
       <c r="B37">
@@ -14171,8 +14070,8 @@
         <v>246515.14091171898</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15">
-      <c r="A38" s="209" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="195" t="s">
         <v>49</v>
       </c>
       <c r="B38">
@@ -14187,7 +14086,7 @@
         <v>72375</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="D38:M38" si="5">E39*$B$18</f>
+        <f t="shared" ref="E38:M38" si="5">E39*$B$18</f>
         <v>72375</v>
       </c>
       <c r="F38">
@@ -14223,7 +14122,7 @@
         <v>72375</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>314</v>
       </c>
@@ -14275,7 +14174,7 @@
         <v>241250</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="85" t="s">
         <v>112</v>
       </c>
@@ -14328,44 +14227,35 @@
         <v>727093589.48934865</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="216" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="202" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="190"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="186"/>
-    </row>
-    <row r="46" spans="1:15" ht="15">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="190"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="186"/>
       <c r="F46" s="51"/>
       <c r="G46" s="90"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E47" s="186"/>
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F47" s="51"/>
       <c r="G47" s="90"/>
     </row>
-    <row r="48" spans="1:15" ht="15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>154</v>
       </c>
       <c r="C48" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="186"/>
       <c r="F48" s="51"/>
       <c r="G48" s="90"/>
       <c r="N48" s="74"/>
@@ -14374,8 +14264,8 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15">
-      <c r="A49" s="213" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="199" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="85">
@@ -14411,7 +14301,7 @@
       <c r="L49" s="85">
         <v>11</v>
       </c>
-      <c r="M49" s="214">
+      <c r="M49" s="200">
         <v>12</v>
       </c>
       <c r="N49" s="23" t="s">
@@ -14422,7 +14312,7 @@
         <v>3825540482.7543974</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="78" t="s">
         <v>183</v>
       </c>
@@ -14430,39 +14320,39 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <f>C30*(1+$B$11)^C49</f>
+        <f t="shared" ref="C50:I50" si="8">C30*(1+$B$11)^C49</f>
         <v>621045451.79999995</v>
       </c>
       <c r="D50">
-        <f>D30*(1+$B$11)^D49</f>
+        <f t="shared" si="8"/>
         <v>646135688.05271995</v>
       </c>
       <c r="E50">
-        <f>E30*(1+$B$11)^E49</f>
+        <f t="shared" si="8"/>
         <v>672239569.85004985</v>
       </c>
       <c r="F50">
-        <f>F30*(1+$B$11)^F49</f>
+        <f t="shared" si="8"/>
         <v>699398048.4719919</v>
       </c>
       <c r="G50">
-        <f>G30*(1+$B$11)^G49</f>
+        <f t="shared" si="8"/>
         <v>727653729.63026047</v>
       </c>
       <c r="H50">
-        <f>H30*(1+$B$11)^H49</f>
+        <f t="shared" si="8"/>
         <v>757050940.30732274</v>
       </c>
       <c r="I50">
-        <f>I30*(1+$B$11)^I49</f>
+        <f t="shared" si="8"/>
         <v>787635798.2957387</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="D50:M50" si="8">J30*(1+$B$11)^J49</f>
+        <f t="shared" ref="J50:K50" si="9">J30*(1+$B$11)^J49</f>
         <v>819456284.54688656</v>
       </c>
       <c r="K50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>852562318.44258082</v>
       </c>
       <c r="L50">
@@ -14481,7 +14371,7 @@
         <v>2355.5000916007143</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="78" t="s">
         <v>180</v>
       </c>
@@ -14502,15 +14392,15 @@
         <v>562434.72818387952</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" ref="D51:N51" si="9">F57+F58+F59</f>
+        <f t="shared" ref="F51:M51" si="10">F57+F58+F59</f>
         <v>569224.28390747961</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>576149.63074555155</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>583213.48452038504</v>
       </c>
       <c r="I51" s="2">
@@ -14518,26 +14408,26 @@
         <v>590418.61537071504</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>597767.84883805178</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>605264.06697473512</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>612910.20947415219</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>620709.27482355782</v>
       </c>
       <c r="N51" s="23"/>
       <c r="O51" s="24"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A52" s="208" t="s">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="194" t="s">
         <v>313</v>
       </c>
       <c r="N52" s="77" t="s">
@@ -14548,25 +14438,25 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="212">
+      <c r="B53" s="198">
         <f>B33/(1+$B$11)^B29</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="212">
+      <c r="B54" s="198">
         <f>B34/(1+$B$11)^B29</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="80" t="s">
         <v>186</v>
       </c>
@@ -14578,47 +14468,47 @@
         <v>87956.942003879318</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" ref="D55:M55" si="10">PPMT($F$21,C49,$M$29-1,-$B$34)</f>
+        <f t="shared" ref="D55:M55" si="11">PPMT($F$21,C49,$M$29-1,-$B$34)</f>
         <v>95717.848651280437</v>
       </c>
       <c r="E55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>104163.5411793346</v>
       </c>
       <c r="F55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>113354.44187162885</v>
       </c>
       <c r="G55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123356.30438971377</v>
       </c>
       <c r="H55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134240.68418880619</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146085.45044075965</v>
       </c>
       <c r="J55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>158975.34312670908</v>
       </c>
       <c r="K55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>173002.57928494812</v>
       </c>
       <c r="L55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>188267.51275126712</v>
       </c>
       <c r="M55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>204879.35211167307</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="80" t="s">
         <v>187</v>
       </c>
@@ -14630,48 +14520,48 @@
         <v>135000.00000000023</v>
       </c>
       <c r="D56" s="16">
-        <f t="shared" ref="D56:M56" si="11">IPMT($F$21,C49,$M$29-1,-$B$34)</f>
+        <f t="shared" ref="D56:M56" si="12">IPMT($F$21,C49,$M$29-1,-$B$34)</f>
         <v>127239.09335259908</v>
       </c>
       <c r="E56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>118793.40082454494</v>
       </c>
       <c r="F56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109602.50013225069</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99600.637614165738</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88716.257815073361</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>76871.491563119853</v>
       </c>
       <c r="J56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63981.598877170458</v>
       </c>
       <c r="K56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49954.362718931385</v>
       </c>
       <c r="L56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34689.429252612412</v>
       </c>
       <c r="M56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18077.589892206473</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="211" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="197" t="s">
         <v>188</v>
       </c>
       <c r="B57">
@@ -14683,48 +14573,48 @@
         <v>222956.94200387955</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57" si="12">SUM(D55:D56)</f>
+        <f t="shared" ref="D57" si="13">SUM(D55:D56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57" si="13">SUM(E55:E56)</f>
+        <f t="shared" ref="E57" si="14">SUM(E55:E56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57" si="14">SUM(F55:F56)</f>
+        <f t="shared" ref="F57" si="15">SUM(F55:F56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="G57">
-        <f t="shared" ref="G57" si="15">SUM(G55:G56)</f>
+        <f t="shared" ref="G57" si="16">SUM(G55:G56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57" si="16">SUM(H55:H56)</f>
+        <f t="shared" ref="H57" si="17">SUM(H55:H56)</f>
         <v>222956.94200387955</v>
       </c>
       <c r="I57">
-        <f t="shared" ref="I57" si="17">SUM(I55:I56)</f>
+        <f t="shared" ref="I57" si="18">SUM(I55:I56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J57" si="18">SUM(J55:J56)</f>
+        <f t="shared" ref="J57" si="19">SUM(J55:J56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="K57">
-        <f t="shared" ref="K57" si="19">SUM(K55:K56)</f>
+        <f t="shared" ref="K57" si="20">SUM(K55:K56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="L57">
-        <f t="shared" ref="L57" si="20">SUM(L55:L56)</f>
+        <f t="shared" ref="L57" si="21">SUM(L55:L56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="M57">
-        <f t="shared" ref="M57" si="21">SUM(M55:M56)</f>
+        <f t="shared" ref="M57" si="22">SUM(M55:M56)</f>
         <v>222956.94200387955</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15">
-      <c r="A58" s="209" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="195" t="s">
         <v>49</v>
       </c>
       <c r="B58">
@@ -14739,43 +14629,43 @@
         <v>76804.928999999989</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58" si="22">E59*$B$18</f>
+        <f t="shared" ref="E58" si="23">E59*$B$18</f>
         <v>78341.027579999994</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58" si="23">F59*$B$18</f>
+        <f t="shared" ref="F58" si="24">F59*$B$18</f>
         <v>79907.848131599996</v>
       </c>
       <c r="G58">
-        <f t="shared" ref="G58" si="24">G59*$B$18</f>
+        <f t="shared" ref="G58" si="25">G59*$B$18</f>
         <v>81506.005094231994</v>
       </c>
       <c r="H58">
-        <f t="shared" ref="H58" si="25">H59*$B$18</f>
+        <f t="shared" ref="H58" si="26">H59*$B$18</f>
         <v>83136.125196116627</v>
       </c>
       <c r="I58">
-        <f t="shared" ref="I58" si="26">I59*$B$18</f>
+        <f t="shared" ref="I58" si="27">I59*$B$18</f>
         <v>84798.847700038954</v>
       </c>
       <c r="J58">
-        <f t="shared" ref="J58" si="27">J59*$B$18</f>
+        <f t="shared" ref="J58" si="28">J59*$B$18</f>
         <v>86494.824654039752</v>
       </c>
       <c r="K58">
-        <f t="shared" ref="K58" si="28">K59*$B$18</f>
+        <f t="shared" ref="K58" si="29">K59*$B$18</f>
         <v>88224.721147120537</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58" si="29">L59*$B$18</f>
+        <f t="shared" ref="L58" si="30">L59*$B$18</f>
         <v>89989.215570062937</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58" si="30">M59*$B$18</f>
+        <f t="shared" ref="M58" si="31">M59*$B$18</f>
         <v>91788.999881464217</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>314</v>
       </c>
@@ -14787,7 +14677,7 @@
         <v>250996.5</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:M59" si="31">D39*(1+$B$11)^D49</f>
+        <f t="shared" ref="D59:M59" si="32">D39*(1+$B$11)^D49</f>
         <v>256016.43</v>
       </c>
       <c r="E59">
@@ -14795,39 +14685,39 @@
         <v>261136.7586</v>
       </c>
       <c r="F59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>266359.49377200002</v>
       </c>
       <c r="G59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>271686.68364743999</v>
       </c>
       <c r="H59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>277120.41732038878</v>
       </c>
       <c r="I59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>282662.82566679653</v>
       </c>
       <c r="J59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>288316.08218013251</v>
       </c>
       <c r="K59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>294082.40382373513</v>
       </c>
       <c r="L59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>299964.0519002098</v>
       </c>
       <c r="M59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>305963.33293821407</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="85" t="s">
         <v>112</v>
       </c>
@@ -14836,51 +14726,51 @@
         <v>1500000</v>
       </c>
       <c r="C61" s="89">
-        <f t="shared" ref="C61:M61" si="32">C50-C51</f>
+        <f t="shared" ref="C61:M61" si="33">C50-C51</f>
         <v>620571498.35799611</v>
       </c>
       <c r="D61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>645579909.75171602</v>
       </c>
       <c r="E61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>671677135.12186599</v>
       </c>
       <c r="F61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>698828824.18808436</v>
       </c>
       <c r="G61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>727077579.99951494</v>
       </c>
       <c r="H61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>756467726.82280231</v>
       </c>
       <c r="I61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>787045379.68036795</v>
       </c>
       <c r="J61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>818858516.69804847</v>
       </c>
       <c r="K61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>851957054.37560606</v>
       </c>
       <c r="L61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>886392925.89818656</v>
       </c>
       <c r="M61" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>922220162.61158693</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
     </row>
   </sheetData>
@@ -14892,27 +14782,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0200A9-0AE7-4807-A422-245F55FC556E}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="69" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" customWidth="1"/>
+    <col min="11" max="13" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="171" t="s">
         <v>275</v>
       </c>
@@ -14922,19 +14812,14 @@
       <c r="C1" s="171" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191" t="s">
+      <c r="J1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="191" t="s">
+      <c r="K1" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-    </row>
-    <row r="2" spans="1:15" ht="15">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="172" t="s">
         <v>277</v>
       </c>
@@ -14945,125 +14830,112 @@
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="22"/>
-      <c r="I2" s="193" t="s">
+      <c r="I2" s="187" t="s">
         <v>315</v>
       </c>
-      <c r="J2" s="174">
+      <c r="J2" s="70">
         <v>1</v>
       </c>
-      <c r="K2" s="174">
+      <c r="K2" s="70">
         <v>1000</v>
       </c>
-      <c r="L2" s="174"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2" s="70"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="173" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="70">
         <v>5</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="174" t="s">
         <v>279</v>
       </c>
       <c r="E3" s="26"/>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="I3" s="70"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="70"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="173" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="70">
         <v>300</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="174" t="s">
         <v>281</v>
       </c>
       <c r="E4" s="173" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="174">
+      <c r="F4" s="70">
         <v>900</v>
       </c>
-      <c r="G4" s="175"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+      <c r="G4" s="174"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="173" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="174">
+      <c r="B5" s="70">
         <v>400</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="174" t="s">
         <v>281</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="178">
+      <c r="F5" s="179"/>
+      <c r="G5" s="177">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="184" t="s">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="182" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="177">
+      <c r="B6" s="176">
         <v>-0.01</v>
       </c>
-      <c r="C6" s="178"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="70"/>
       <c r="I6" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="201" t="s">
+      <c r="J6" s="191" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="202" t="s">
+      <c r="K6" s="192" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="179"/>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
       <c r="E7" s="172" t="s">
         <v>290</v>
       </c>
       <c r="F7" s="21"/>
-      <c r="G7" s="182"/>
+      <c r="G7" s="180"/>
       <c r="I7" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="J7" s="189"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="56">
         <f>(B3*1000)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="172" t="s">
         <v>283</v>
       </c>
@@ -15072,312 +14944,260 @@
       <c r="E8" s="173" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="174">
+      <c r="F8" s="70">
         <v>140</v>
       </c>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I8" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="J8" s="189"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="56">
         <f>B4</f>
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
-      <c r="A9" s="185" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="180">
+      <c r="B9" s="178">
         <v>0.05</v>
       </c>
       <c r="C9" s="70"/>
       <c r="E9" s="173" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="174">
+      <c r="F9" s="70">
         <v>120</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I9" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="189"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="56">
         <f>K7-K8</f>
         <v>4700</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="185" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="183" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="180">
+      <c r="B10" s="178">
         <v>0.03</v>
       </c>
       <c r="C10" s="70"/>
       <c r="E10" s="173" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="174">
+      <c r="F10" s="70">
         <v>450</v>
       </c>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I10" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="J10" s="189" t="s">
+      <c r="J10" s="53" t="s">
         <v>312</v>
       </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="173" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="180">
+      <c r="B11" s="178">
         <v>0.02</v>
       </c>
       <c r="C11" s="70"/>
       <c r="E11" s="173" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="174">
+      <c r="F11" s="70">
         <v>500</v>
       </c>
-      <c r="G11" s="175" t="s">
+      <c r="G11" s="174" t="s">
         <v>292</v>
       </c>
       <c r="I11" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="189"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="56">
         <f>B5</f>
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A12" s="184" t="s">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="182" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="192">
+      <c r="B12" s="186">
         <v>0.02</v>
       </c>
       <c r="E12" s="173" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="174">
+      <c r="F12" s="70">
         <v>800</v>
       </c>
-      <c r="G12" s="175" t="s">
+      <c r="G12" s="174" t="s">
         <v>281</v>
       </c>
       <c r="I12" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="J12" s="189"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="56">
         <f>K9+K11</f>
         <v>5100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E13" s="176" t="s">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="175" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="181">
+      <c r="F13" s="179">
         <v>0.3</v>
       </c>
-      <c r="G13" s="178"/>
-      <c r="I13" s="188" t="s">
+      <c r="G13" s="177"/>
+      <c r="I13" s="185" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="200"/>
+      <c r="J13" s="190"/>
       <c r="K13" s="67">
         <f>K12*(F4*G5)</f>
         <v>573750000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="I14" s="197"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-    </row>
-    <row r="15" spans="1:15" ht="15">
-      <c r="A15" s="203" t="s">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="189"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="193" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="22"/>
       <c r="E15" s="172" t="s">
         <v>298</v>
       </c>
-      <c r="F15" s="183"/>
+      <c r="F15" s="181"/>
       <c r="G15" s="22"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-    </row>
-    <row r="16" spans="1:15" ht="15">
-      <c r="A16" s="204" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="173" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="210">
+      <c r="B16" s="196">
         <v>1500000</v>
       </c>
-      <c r="C16" s="191"/>
       <c r="E16" s="173" t="s">
         <v>299</v>
       </c>
-      <c r="F16" s="174">
+      <c r="F16" s="70">
         <v>1.3</v>
       </c>
       <c r="G16" s="24"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="204" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="205">
+      <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="185" t="s">
+      <c r="E17" s="183" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="179">
+      <c r="F17" s="71">
         <v>0.1</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="206" t="s">
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="175" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="207">
+      <c r="B18" s="37">
         <v>0.3</v>
       </c>
-      <c r="C18" s="190" t="s">
+      <c r="C18" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="186"/>
       <c r="E18" s="173" t="s">
         <v>300</v>
       </c>
-      <c r="F18" s="174">
+      <c r="F18" s="70">
         <v>5</v>
       </c>
-      <c r="G18" s="175" t="s">
+      <c r="G18" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="191"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="184" t="s">
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="F19" s="177">
+      <c r="F19" s="176">
         <v>0.11</v>
       </c>
       <c r="G19" s="31"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-    </row>
-    <row r="20" spans="1:15" ht="15">
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
-      <c r="I20" s="174"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="217">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F20" s="51"/>
+      <c r="G20" s="90"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F21" s="203">
         <f>(1+F19)/(1+B11)-1</f>
         <v>8.8235294117647189E-2</v>
       </c>
-      <c r="G21" s="195"/>
-      <c r="I21" s="191"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="I22" s="191"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="187" t="s">
+      <c r="G21" s="90"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="186"/>
-    </row>
-    <row r="26" spans="1:15" ht="15">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
       <c r="F26" s="51"/>
       <c r="G26" s="90"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E27" s="186"/>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F27" s="51"/>
       <c r="G27" s="90"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="186"/>
       <c r="F28" s="51"/>
       <c r="G28" s="90"/>
       <c r="N28" s="74"/>
@@ -15386,8 +15206,8 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15">
-      <c r="A29" s="213" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="199" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="85">
@@ -15423,7 +15243,7 @@
       <c r="L29" s="85">
         <v>11</v>
       </c>
-      <c r="M29" s="214">
+      <c r="M29" s="200">
         <v>12</v>
       </c>
       <c r="N29" s="23" t="s">
@@ -15434,7 +15254,7 @@
         <v>3386189844.9033451</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="78" t="s">
         <v>183</v>
       </c>
@@ -15493,7 +15313,7 @@
         <v>2151.0581936412009</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="78" t="s">
         <v>180</v>
       </c>
@@ -15506,7 +15326,7 @@
         <v>560140.14091171906</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31:N31" si="1">D37+D38+D39</f>
+        <f t="shared" ref="D31:M31" si="1">D37+D38+D39</f>
         <v>560140.14091171895</v>
       </c>
       <c r="E31" s="2">
@@ -15548,8 +15368,8 @@
       <c r="N31" s="23"/>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A32" s="208" t="s">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="194" t="s">
         <v>313</v>
       </c>
       <c r="N32" s="77" t="s">
@@ -15560,25 +15380,25 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="212">
+      <c r="B33" s="198">
         <f>$B$16*(1+$B$11)^$B$29</f>
         <v>1530000</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="212">
+      <c r="B34" s="198">
         <f>B33*B17</f>
         <v>1530000</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="80" t="s">
         <v>186</v>
       </c>
@@ -15630,7 +15450,7 @@
         <v>222085.71253308016</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="80" t="s">
         <v>187</v>
       </c>
@@ -15682,8 +15502,8 @@
         <v>24429.428378638815</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="211" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="197" t="s">
         <v>188</v>
       </c>
       <c r="B37">
@@ -15735,8 +15555,8 @@
         <v>246515.14091171898</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15">
-      <c r="A38" s="209" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="195" t="s">
         <v>49</v>
       </c>
       <c r="B38">
@@ -15787,7 +15607,7 @@
         <v>72375</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>314</v>
       </c>
@@ -15839,7 +15659,7 @@
         <v>241250</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="85" t="s">
         <v>112</v>
       </c>
@@ -15892,44 +15712,35 @@
         <v>727093589.48934865</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="216" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="202" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="190"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="186"/>
-    </row>
-    <row r="46" spans="1:15" ht="15">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="190"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="186"/>
       <c r="F46" s="51"/>
       <c r="G46" s="90"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E47" s="186"/>
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F47" s="51"/>
       <c r="G47" s="90"/>
     </row>
-    <row r="48" spans="1:15" ht="15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>154</v>
       </c>
       <c r="C48" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="186"/>
       <c r="F48" s="51"/>
       <c r="G48" s="90"/>
       <c r="N48" s="74"/>
@@ -15938,8 +15749,8 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15">
-      <c r="A49" s="213" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="199" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="85">
@@ -15975,7 +15786,7 @@
       <c r="L49" s="85">
         <v>11</v>
       </c>
-      <c r="M49" s="214">
+      <c r="M49" s="200">
         <v>12</v>
       </c>
       <c r="N49" s="23" t="s">
@@ -15986,7 +15797,7 @@
         <v>3825540482.7543974</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="78" t="s">
         <v>183</v>
       </c>
@@ -15994,39 +15805,39 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <f>C30*(1+$B$11)^C49</f>
+        <f t="shared" ref="C50:I50" si="8">C30*(1+$B$11)^C49</f>
         <v>621045451.79999995</v>
       </c>
       <c r="D50">
-        <f>D30*(1+$B$11)^D49</f>
+        <f t="shared" si="8"/>
         <v>646135688.05271995</v>
       </c>
       <c r="E50">
-        <f>E30*(1+$B$11)^E49</f>
+        <f t="shared" si="8"/>
         <v>672239569.85004985</v>
       </c>
       <c r="F50">
-        <f>F30*(1+$B$11)^F49</f>
+        <f t="shared" si="8"/>
         <v>699398048.4719919</v>
       </c>
       <c r="G50">
-        <f>G30*(1+$B$11)^G49</f>
+        <f t="shared" si="8"/>
         <v>727653729.63026047</v>
       </c>
       <c r="H50">
-        <f>H30*(1+$B$11)^H49</f>
+        <f t="shared" si="8"/>
         <v>757050940.30732274</v>
       </c>
       <c r="I50">
-        <f>I30*(1+$B$11)^I49</f>
+        <f t="shared" si="8"/>
         <v>787635798.2957387</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50:K50" si="8">J30*(1+$B$11)^J49</f>
+        <f t="shared" ref="J50:K50" si="9">J30*(1+$B$11)^J49</f>
         <v>819456284.54688656</v>
       </c>
       <c r="K50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>852562318.44258082</v>
       </c>
       <c r="L50">
@@ -16045,7 +15856,7 @@
         <v>2355.5000916007143</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="78" t="s">
         <v>180</v>
       </c>
@@ -16066,15 +15877,15 @@
         <v>562434.72818387952</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" ref="F51:P51" si="9">F57+F58+F59</f>
+        <f t="shared" ref="F51:M51" si="10">F57+F58+F59</f>
         <v>569224.28390747961</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>576149.63074555155</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>583213.48452038504</v>
       </c>
       <c r="I51" s="2">
@@ -16082,26 +15893,26 @@
         <v>590418.61537071504</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>597767.84883805178</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>605264.06697473512</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>612910.20947415219</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>620709.27482355782</v>
       </c>
       <c r="N51" s="23"/>
       <c r="O51" s="24"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A52" s="208" t="s">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="194" t="s">
         <v>313</v>
       </c>
       <c r="N52" s="77" t="s">
@@ -16112,25 +15923,25 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="212">
+      <c r="B53" s="198">
         <f>B33/(1+$B$11)^B29</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="212">
+      <c r="B54" s="198">
         <f>B34/(1+$B$11)^B29</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="80" t="s">
         <v>186</v>
       </c>
@@ -16142,47 +15953,47 @@
         <v>87956.942003879318</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" ref="D55:M55" si="10">PPMT($F$21,C49,$M$29-1,-$B$34)</f>
+        <f t="shared" ref="D55:M55" si="11">PPMT($F$21,C49,$M$29-1,-$B$34)</f>
         <v>95717.848651280437</v>
       </c>
       <c r="E55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>104163.5411793346</v>
       </c>
       <c r="F55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>113354.44187162885</v>
       </c>
       <c r="G55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123356.30438971377</v>
       </c>
       <c r="H55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134240.68418880619</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146085.45044075965</v>
       </c>
       <c r="J55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>158975.34312670908</v>
       </c>
       <c r="K55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>173002.57928494812</v>
       </c>
       <c r="L55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>188267.51275126712</v>
       </c>
       <c r="M55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>204879.35211167307</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="80" t="s">
         <v>187</v>
       </c>
@@ -16194,48 +16005,48 @@
         <v>135000.00000000023</v>
       </c>
       <c r="D56" s="16">
-        <f t="shared" ref="D56:M56" si="11">IPMT($F$21,C49,$M$29-1,-$B$34)</f>
+        <f t="shared" ref="D56:M56" si="12">IPMT($F$21,C49,$M$29-1,-$B$34)</f>
         <v>127239.09335259908</v>
       </c>
       <c r="E56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>118793.40082454494</v>
       </c>
       <c r="F56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109602.50013225069</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99600.637614165738</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>88716.257815073361</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>76871.491563119853</v>
       </c>
       <c r="J56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63981.598877170458</v>
       </c>
       <c r="K56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49954.362718931385</v>
       </c>
       <c r="L56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34689.429252612412</v>
       </c>
       <c r="M56" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18077.589892206473</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="211" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="197" t="s">
         <v>188</v>
       </c>
       <c r="B57">
@@ -16247,48 +16058,48 @@
         <v>222956.94200387955</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:M57" si="12">SUM(D55:D56)</f>
+        <f t="shared" ref="D57:M57" si="13">SUM(D55:D56)</f>
         <v>222956.94200387952</v>
       </c>
       <c r="E57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387952</v>
       </c>
       <c r="F57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387952</v>
       </c>
       <c r="G57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387952</v>
       </c>
       <c r="H57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387955</v>
       </c>
       <c r="I57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387952</v>
       </c>
       <c r="J57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387952</v>
       </c>
       <c r="K57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387952</v>
       </c>
       <c r="L57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387952</v>
       </c>
       <c r="M57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>222956.94200387955</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15">
-      <c r="A58" s="209" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="195" t="s">
         <v>49</v>
       </c>
       <c r="B58">
@@ -16303,43 +16114,43 @@
         <v>76804.928999999989</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58:M58" si="13">E59*$B$18</f>
+        <f t="shared" ref="E58:M58" si="14">E59*$B$18</f>
         <v>78341.027579999994</v>
       </c>
       <c r="F58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>79907.848131599996</v>
       </c>
       <c r="G58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>81506.005094231994</v>
       </c>
       <c r="H58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>83136.125196116627</v>
       </c>
       <c r="I58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>84798.847700038954</v>
       </c>
       <c r="J58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>86494.824654039752</v>
       </c>
       <c r="K58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88224.721147120537</v>
       </c>
       <c r="L58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>89989.215570062937</v>
       </c>
       <c r="M58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>91788.999881464217</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>314</v>
       </c>
@@ -16351,7 +16162,7 @@
         <v>250996.5</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:M59" si="14">D39*(1+$B$11)^D49</f>
+        <f t="shared" ref="D59:M59" si="15">D39*(1+$B$11)^D49</f>
         <v>256016.43</v>
       </c>
       <c r="E59">
@@ -16359,39 +16170,39 @@
         <v>261136.7586</v>
       </c>
       <c r="F59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>266359.49377200002</v>
       </c>
       <c r="G59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>271686.68364743999</v>
       </c>
       <c r="H59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>277120.41732038878</v>
       </c>
       <c r="I59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>282662.82566679653</v>
       </c>
       <c r="J59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288316.08218013251</v>
       </c>
       <c r="K59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>294082.40382373513</v>
       </c>
       <c r="L59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>299964.0519002098</v>
       </c>
       <c r="M59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>305963.33293821407</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="85" t="s">
         <v>112</v>
       </c>
@@ -16400,51 +16211,51 @@
         <v>1500000</v>
       </c>
       <c r="C61" s="89">
-        <f t="shared" ref="C61:M61" si="15">C50-C51</f>
+        <f t="shared" ref="C61:M61" si="16">C50-C51</f>
         <v>620571498.35799611</v>
       </c>
       <c r="D61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>645579909.75171602</v>
       </c>
       <c r="E61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>671677135.12186599</v>
       </c>
       <c r="F61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>698828824.18808436</v>
       </c>
       <c r="G61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>727077579.99951494</v>
       </c>
       <c r="H61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>756467726.82280231</v>
       </c>
       <c r="I61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>787045379.68036795</v>
       </c>
       <c r="J61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>818858516.69804847</v>
       </c>
       <c r="K61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>851957054.37560606</v>
       </c>
       <c r="L61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>886392925.89818656</v>
       </c>
       <c r="M61" s="89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>922220162.61158693</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
     </row>
   </sheetData>
@@ -16453,6 +16264,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="81c8d946-e74e-4658-82bc-01095f10b832" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064390183F06D724C83DE71489E552D5A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0329eb1172e3e2bb210cc0d14101b948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="81c8d946-e74e-4658-82bc-01095f10b832" xmlns:ns4="af7da3fd-bd7d-4b07-a26d-5c4edd2bac1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="742184678c46a89a3d824c3c7a548713" ns3:_="" ns4:_="">
     <xsd:import namespace="81c8d946-e74e-4658-82bc-01095f10b832"/>
@@ -16691,14 +16510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="81c8d946-e74e-4658-82bc-01095f10b832" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16709,6 +16520,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B8D604-7AA4-4EF4-B03B-AF1A63110666}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="81c8d946-e74e-4658-82bc-01095f10b832"/>
+    <ds:schemaRef ds:uri="af7da3fd-bd7d-4b07-a26d-5c4edd2bac1d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B5D269A-F902-4BB8-9353-AD90D8C89CB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16727,23 +16555,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B8D604-7AA4-4EF4-B03B-AF1A63110666}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="81c8d946-e74e-4658-82bc-01095f10b832"/>
-    <ds:schemaRef ds:uri="af7da3fd-bd7d-4b07-a26d-5c4edd2bac1d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27938BAF-8B73-4EF6-B007-DD17E20F45D6}">
   <ds:schemaRefs>
